--- a/DataFiles/example.xlsx
+++ b/DataFiles/example.xlsx
@@ -15,15 +15,261 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="366">
   <x:si>
+    <x:t>역공학(reverse engineering)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2계층</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3계층</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1계층</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4계층</x:t>
+  </x:si>
+  <x:si>
+    <x:t>HID</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TDM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SYN</x:t>
+  </x:si>
+  <x:si>
+    <x:t>토큰링</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SOH</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ACK</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이더넷</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LPC</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RF</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FDM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>EOT</x:t>
+  </x:si>
+  <x:si>
+    <x:t>속성</x:t>
+  </x:si>
+  <x:si>
+    <x:t>개체</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10H</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15H</x:t>
+  </x:si>
+  <x:si>
+    <x:t>D</x:t>
+  </x:si>
+  <x:si>
+    <x:t>메모리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12H</x:t>
+  </x:si>
+  <x:si>
+    <x:t>A</x:t>
+  </x:si>
+  <x:si>
+    <x:t>F</x:t>
+  </x:si>
+  <x:si>
+    <x:t>E</x:t>
+  </x:si>
+  <x:si>
+    <x:t>도메인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>누산기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(ㄱ)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>11H</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RR</x:t>
+  </x:si>
+  <x:si>
+    <x:t>X₀</x:t>
+  </x:si>
+  <x:si>
+    <x:t>X1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>X3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MFQ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>cat</x:t>
+  </x:si>
+  <x:si>
+    <x:t>정확성</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DNA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>cp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>HRN</x:t>
+  </x:si>
+  <x:si>
+    <x:t>채널</x:t>
+  </x:si>
+  <x:si>
+    <x:t>일관성</x:t>
+  </x:si>
+  <x:si>
+    <x:t>간결성</x:t>
+  </x:si>
+  <x:si>
+    <x:t>무결성</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ls</x:t>
+  </x:si>
+  <x:si>
+    <x:t>X2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>시스템 개발을 위한 분석과 설계가 용이하다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>시스템 전체의 정책을 결정하는 어떤 통합적인 제거 기능은 필요하지 않다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>한 릴레이션을 구성하는 속성들 사이의 순서는 존재하며, 중요한 의미를 가진다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로킹은 파일 단위로 이루어지며, 레코드 또는 필드는 로킹 단위가 될 수 없다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>상위 클래스의 모든 속성과 연산을 하위 클래스가 물려받는 것을 의미한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>프래그 - 정보영역 - 제어영역 - 주소영역 - FCS - 프래그</x:t>
+  </x:si>
+  <x:si>
+    <x:t>프래그 - 제어영역 - 주소영역 - 정보영역 - FCS - 프래그</x:t>
+  </x:si>
+  <x:si>
+    <x:t>같은 규모의 소프트웨어라도 그 유형에 따라 비용이 다르게 산정된다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>모니터 외부에서도 모니터 내의 데이터를 직접 액세스 할 수 있다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>프래그 - 주소영역 - 정보영역 - 제어영역 - FCS - 프래그</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사용자는 특정 자원의 물리적 위치를 알지 못하여도 사용할 수 있다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPLD(Complex Programmable Logic Device)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>프래그 - 주소영역 - 제어영역 - 정보영역 - FCS - 프래그</x:t>
+  </x:si>
+  <x:si>
+    <x:t>개발에 필요한 인적 자원, 하드웨어 자원, 소프트웨어 자원 등이 있다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>문제고유번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>연속적인 레코드의 저장에 의해 레코드 사이에 빈 공간이 존재하지 않으므로 기억장치의 효율적인 이용이 가능하다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MO이 끝나고 다음 오퍼레이션이 수행될 될 때까지 시간지연이 있게 되어 CPU 처리 속도가 느려진다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Logical Schema → Requirement Formulation → Conceptual Schema → Physical Schema</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Logical Schema → Requirement Formulation → Physical Schema → Conceptual Schema</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Requirement Formulation → Conceptual Schema → Logical Schema → Physical Schema</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Requirement Formulation → Conceptual Schema → Physical Schema → Logical Schema</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RSA(Rivest Shamir Adleman)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>자동화된 기법을 통해 소프트웨어 품질이 향상된다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DES 알고리즘에서 키 관리가 매우 중요하다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>E-R 다이어그램에서 속성은 타원으로 나타낸다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로킹 단위가 크면 병행 제어 기법이 복잡해진다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>한 릴레이션에 포함된 튜플 사이에는 순서가 없다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>어떤 형태의 입출력 매체에서도 처리가 가능하다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>캐쉬- 일관성 문제는 캐싱의 가장 큰 결점이다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>임계구역에 2개의 프로세서가 들어갈 수 있다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1- 주소 명령어 형식은 누산기를 사용한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>한 릴레이션에 포함된 튜플들은 모두 상이한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Multiaccess Bus Connected</x:t>
+  </x:si>
+  <x:si>
+    <x:t>소프트웨어 유지보수를 간편하게 수행할 수 있다</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주로 이더넷(Ethernet)에서 사용된다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0- 주소 명령어 형식은 PUSH/POP 연산을 사용한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3- 주소 명령어 형식은 내용이 연산 결과 저장으로 소멸된다.</x:t>
+  </x:si>
+  <x:si>
     <x:t>오너 - 멤버 (Owner-Member) 관계라고도 한다.</x:t>
   </x:si>
   <x:si>
-    <x:t>0- 주소 명령어 형식은 PUSH/POP 연산을 사용한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3- 주소 명령어 형식은 내용이 연산 결과 저장으로 소멸된다.</x:t>
-  </x:si>
-  <x:si>
     <x:t>프로젝트 관리 방법론에 따라 생산된 문서와 관리 비용 등이 있다</x:t>
   </x:si>
   <x:si>
@@ -33,1084 +279,838 @@
     <x:t>LPGA(Field Programmable Gate Array)</x:t>
   </x:si>
   <x:si>
+    <x:t>소프트웨어 재사용성이 높아진다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>모든 세마포어의 기본 값은 2이다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Domain Interface</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(ㄱ), (ㄴ), (ㄷ), (ㄹ)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Common operation</x:t>
+  </x:si>
+  <x:si>
+    <x:t>소프트웨어 개발 요구의 다양화</x:t>
+  </x:si>
+  <x:si>
+    <x:t>재구성(restructuring)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>④ → ③ → ② → ⑤ → ①</x:t>
+  </x:si>
+  <x:si>
+    <x:t>③ → ② → ④ → ⑤ → ①</x:t>
+  </x:si>
+  <x:si>
+    <x:t>베이스 밴드 전송 방식을 사용한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Reed-Solomon code</x:t>
+  </x:si>
+  <x:si>
+    <x:t>① → ③ → ② → ⑤ → ④</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DES는 비대칭형 암호화 기법이다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Common Facilities</x:t>
+  </x:si>
+  <x:si>
+    <x:t>작업일정과 비용의 추정치가 부정확</x:t>
+  </x:si>
+  <x:si>
+    <x:t>가드 밴드(Guard Band)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>두 개의 임계구역이 존재한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Partially Connected</x:t>
+  </x:si>
+  <x:si>
+    <x:t>② → ③ → ④ → ⑤ → ①</x:t>
+  </x:si>
+  <x:si>
+    <x:t>인터리빙(interleaving)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사용자에 대한 응답시간 최소화</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Cartesian product</x:t>
+  </x:si>
+  <x:si>
+    <x:t>프로그램 개발 인력이 감소된다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>-128 ~ +128'</x:t>
+  </x:si>
+  <x:si>
+    <x:t>-256 ~ +127'</x:t>
+  </x:si>
+  <x:si>
+    <x:t>-128 ~ +127'</x:t>
+  </x:si>
+  <x:si>
+    <x:t>제어장치의 구현이 간단하다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Axis operation</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Micro operation</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1000 Mbytes/sec</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1 Mbytes/sec</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(ㄱ), (ㄷ), (ㄹ)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3, 4, 8, 7, 9</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Count operation</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3, 8, 4, 9, 7</x:t>
+  </x:si>
+  <x:si>
+    <x:t>-256 ~ +256'</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7, 8, 3, 4, 9</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Project Plan</x:t>
+  </x:si>
+  <x:si>
+    <x:t>인터페이스가 단순화 된다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>데이터베이스 공유도 최소화</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Manipulation 기능</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3, 4, 9 ,7, 8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>100 Mbytes/sec</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Polymorphism</x:t>
+  </x:si>
+  <x:si>
+    <x:t>프램그램 유지보수가 용이다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>간접(Indirect)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Fully Connected</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Dynarnic Loader</x:t>
+  </x:si>
+  <x:si>
+    <x:t>가-데이터, 나- 명령문</x:t>
+  </x:si>
+  <x:si>
+    <x:t>가- 동사, 나- 명사</x:t>
+  </x:si>
+  <x:si>
+    <x:t>프로세스(CPU) 상태정보</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User Interface</x:t>
+  </x:si>
+  <x:si>
+    <x:t>자체의 내장 명령어 제공</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10 Mbytes/sec</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ring Connected</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Absolute Loader</x:t>
+  </x:si>
+  <x:si>
+    <x:t>데이터베이스 일관성 유지</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Definition 기능</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Encapsulation</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Spiral Model</x:t>
+  </x:si>
+  <x:si>
+    <x:t>비용과 일정에 대한 제약설정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>프로그램의 확장성이 있다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>정 마크(정 스페이스)방식</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Waterfall Model</x:t>
+  </x:si>
+  <x:si>
+    <x:t>가-명령문, 나- 의문문</x:t>
+  </x:si>
+  <x:si>
+    <x:t>가-의문문, 나- 제어문</x:t>
+  </x:si>
+  <x:si>
+    <x:t>프로그램 검사 인터럽트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>폴링 (polling)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Prototype Model</x:t>
+  </x:si>
+  <x:si>
+    <x:t>피기백(piggyback)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>분석(analysis)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이식(migeation)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>의미(semantic)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>σR1(πP(A1))</x:t>
+  </x:si>
+  <x:si>
+    <x:t>πR1(σP(A1))</x:t>
+  </x:si>
+  <x:si>
+    <x:t>σA1(πP(R1))</x:t>
+  </x:si>
+  <x:si>
+    <x:t>πA1(σP(R1))</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(ㄴ), (ㄷ)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>시스템 활용도 최대화</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Overflow</x:t>
+  </x:si>
+  <x:si>
+    <x:t>consistency</x:t>
+  </x:si>
+  <x:si>
+    <x:t>durability</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Strategy 기능</x:t>
+  </x:si>
+  <x:si>
+    <x:t>24F5H 번지</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Control 기능</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Top = Top+1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ORDER BY</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Top = Top-2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>atomicity</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Underflow</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GROUP BY</x:t>
+  </x:si>
+  <x:si>
+    <x:t>isolation</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Cardinality</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Attribute</x:t>
+  </x:si>
+  <x:si>
+    <x:t>24F2H 번지</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">3-2-1-4-5	</x:t>
+  </x:si>
+  <x:si>
+    <x:t>256DH 번지</x:t>
+  </x:si>
+  <x:si>
+    <x:t>24F8H 번지</x:t>
+  </x:si>
+  <x:si>
+    <x:t>매크로 컴파일러</x:t>
+  </x:si>
+  <x:si>
+    <x:t>메모리(Memory)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>크로스 어셈블러</x:t>
+  </x:si>
+  <x:si>
+    <x:t>emulation</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">3-2-4-1-5	</x:t>
+  </x:si>
+  <x:si>
+    <x:t>실행(Execute)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>인출(Fetch)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>handshaking</x:t>
+  </x:si>
+  <x:si>
+    <x:t>일괄처리 프로그래밍</x:t>
+  </x:si>
+  <x:si>
+    <x:t>메크로 어셈블러</x:t>
+  </x:si>
+  <x:si>
+    <x:t>분산처리 프로그래밍</x:t>
+  </x:si>
+  <x:si>
+    <x:t>리얼타임 프로그래밍</x:t>
+  </x:si>
+  <x:si>
+    <x:t>interrupt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5-3-2-1-4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>멀티 프로그래밍</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5-3-2-4-1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>입/출력의 인터럽트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>프로세스 제어정보</x:t>
+  </x:si>
+  <x:si>
+    <x:t>입출력 프로세서</x:t>
+  </x:si>
+  <x:si>
+    <x:t>파이프라인 기능</x:t>
+  </x:si>
+  <x:si>
+    <x:t>프로세스 생성정보</x:t>
+  </x:si>
+  <x:si>
+    <x:t>일단계 디렉토리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>비주기 디렉토리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>디스크 공간 확보</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이단계 디렉토리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기계 검사 인터럽트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SVC 인터럽트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주기억장치에 상주</x:t>
+  </x:si>
+  <x:si>
+    <x:t>평균 반응시간의 단축</x:t>
+  </x:si>
+  <x:si>
+    <x:t>트리 구조 디렉토리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>프로세스 식별정보</x:t>
+  </x:si>
+  <x:si>
+    <x:t>입출력 방향지정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Inheritance</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Abstraction</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Source Code</x:t>
+  </x:si>
+  <x:si>
+    <x:t>입·출력 인터럽트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BOOT BLOCK</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hipo-chart</x:t>
+  </x:si>
+  <x:si>
+    <x:t>USER BLOCK</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Reliability</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Test Case</x:t>
+  </x:si>
+  <x:si>
+    <x:t>INODE LIST</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Correctness</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Portability</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Efficiency</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SUPER BLOCK</x:t>
+  </x:si>
+  <x:si>
+    <x:t>데이터 흐름의 표현</x:t>
+  </x:si>
+  <x:si>
+    <x:t>응답시간의 최소화</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Box Diagram</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10.29.240.0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>패리티 체크 방식</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4GT Model</x:t>
+  </x:si>
+  <x:si>
+    <x:t>설계 명세서 작성</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Flow Chart</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10.0.0.32</x:t>
+  </x:si>
+  <x:si>
+    <x:t>슬립(slip)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>데이터 사전을 표현</x:t>
+  </x:si>
+  <x:si>
+    <x:t>데이터 구조의 표현</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10.1.16.3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>군계수 체크 방식</x:t>
+  </x:si>
+  <x:si>
+    <x:t>요구사항 정의 문서화</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1, 2, 3, 4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10.240.0.0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>HIPO Chart</x:t>
+  </x:si>
+  <x:si>
+    <x:t>채널(Channel)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>타이밍(timing)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>개체(entity)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>구문(syntax)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>버퍼(Buffer)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>슬롯(Slot)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>전송 오류 검출</x:t>
+  </x:si>
+  <x:si>
+    <x:t>A→B 이고 B→C 일 때, B→A 를 만족하는 관계</x:t>
+  </x:si>
+  <x:si>
+    <x:t>A→B 이고 B→C 일 때, C→A 를 만족하는 관계</x:t>
+  </x:si>
+  <x:si>
+    <x:t>A→B 이고 B→C 일 때, C→B 를 만족하는 관계</x:t>
+  </x:si>
+  <x:si>
+    <x:t>소프트웨어 규모의 증대와 복잡도에 따른 개발 비용의 감소</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DES(Data Encryption Standard)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>A→B 이고 B→C 일 때, A→C 를 만족하는 관계</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SELECT, INSERT, DELETE, UPDATE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로킹 단위가 작으면 로크(lock)의 수가 적어진다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>INSERT, DELETE, UPDATE, DROP</x:t>
+  </x:si>
+  <x:si>
+    <x:t>디지털 서명은 비대칭형 암호 알고리즘을 사용 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FEAL(Fast Encryption Algorithm)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PLA(Programmable Logic Array)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SELECT, INSERT, DELETE, ALTER</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2- 주소 명령어 형식은 MOVE 명령이 필요하다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>새로운 소프트웨어의 오류율이 고객 불만과 신뢰결여를 유발</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DELETE, UPDATE, CREATE, ALTER</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공유 데이터와 이 데이터를 처리하는 프로시저로 구성된다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PAL(Programmable Array Logic)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>생산자/소비자를 구현하는 세마포어의 초기 값은 2이다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>E-R 다이어그램에서 개체 타입은 사각형으로 나타낸다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>캐쉬- 일관성 문제는 쓰기 접근 빈도가 많은 접근형태에서 캐싱이 우수하다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사용자에게 동적으로 할당할 수 있는 일반적인 자원들이 각 노드에 분산되어 있다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>COCOMO 방법은 가정과 제약조건이 없어 모든 시스템에 동일하게 적용할 수 맀다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>분산된 노드들은 통신 네트워크를 이용하여 메시지를 주고 받은으로서 정보를 교환한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>여러 종류의 MO 수행시 CPU사이클 타임이 실제적인 오퍼레이션 시간보다 길다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>모든 원격 접근은 원격- 서비스 방법이 사용 될 때 네트워크를 통해서만 처리된다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>정규화의 목적은 각 릴레이션에 분산된 종속성을 하나의 릴레이션에 통합 하는 것이다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>프로젝트 자체 요소로 문제의 복잡도, 시스템의 규모, 요구되는 신뢰도 등이 있다</x:t>
+  </x:si>
+  <x:si>
+    <x:t>많은 원격 접근들은 캐싱이 사용될 때 지역 캐쉬에 의해서 효율적으로 처리될 수 맀다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FHSS</x:t>
+  </x:si>
+  <x:si>
+    <x:t>영역 2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>제어규칙</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DSSS</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0011</x:t>
+  </x:si>
+  <x:si>
+    <x:t>크로스 링커</x:t>
+  </x:si>
+  <x:si>
+    <x:t>보기번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>OR 연산</x:t>
+  </x:si>
+  <x:si>
+    <x:t>분기 번지</x:t>
+  </x:si>
+  <x:si>
+    <x:t>영역 4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PEOPLE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>데이터 처리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Degree</x:t>
+  </x:si>
+  <x:si>
+    <x:t>영역 1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>JOIN</x:t>
+  </x:si>
+  <x:si>
+    <x:t>보기내용</x:t>
+  </x:si>
+  <x:si>
+    <x:t>channel</x:t>
+  </x:si>
+  <x:si>
+    <x:t>UPDATE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>NOT 연산</x:t>
+  </x:si>
+  <x:si>
+    <x:t>영역 3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AND 연산</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1, 4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>정보 저장</x:t>
+  </x:si>
+  <x:si>
+    <x:t>타당성 조사</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주소 인식</x:t>
+  </x:si>
+  <x:si>
+    <x:t>데이터 버스</x:t>
+  </x:si>
+  <x:si>
+    <x:t>XOR 연산</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FIFO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>제약조건</x:t>
+  </x:si>
+  <x:si>
+    <x:t>처리율 극대화</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기능적 분석</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LAPX</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LAPM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1, 2, 3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1, 2, 4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>OFDM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>480K</x:t>
+  </x:si>
+  <x:si>
+    <x:t>토큰버스</x:t>
+  </x:si>
+  <x:si>
+    <x:t>L2CAP</x:t>
+  </x:si>
+  <x:si>
+    <x:t>170K</x:t>
+  </x:si>
+  <x:si>
+    <x:t>430K</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RFCOMM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>구조적 분석</x:t>
+  </x:si>
+  <x:si>
+    <x:t>chmod</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PROCESS</x:t>
+  </x:si>
+  <x:si>
+    <x:t>객체지향 분석</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LAPB</x:t>
+  </x:si>
+  <x:si>
+    <x:t>실시간 분석</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LAPD</x:t>
+  </x:si>
+  <x:si>
+    <x:t>260K</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DPCM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>외부 인터럽트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PASSING</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PROBLEM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FDDI</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SQD 방식</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Person-Month(PM) 당 제작되는 평균 LOC(Line of Code) 등이 있다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>개체 타입과 이들 간의 관계 타입을 기본 요소로 이용하여 현실 세계를 개념적으로 표현한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이상(Anomaly) 현상은 데이터들 간에 존재하는 함수 종속이 하나의 원인이 될 수 있다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>정규화를 거치지 않으면 여러 가지 상이한 종류의 정보를 하나의 릴레이션으로 표현하여 그 릴레이이션을 조작할 때 이상(Anomaly) 현상이 발생할 수 있다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Control Specification</x:t>
+  </x:si>
+  <x:si>
+    <x:t>전송 매체는 UTP(꼬임쌍선) 이다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>변경 발생 시 오류의 파급효과가 적다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>데이터 구조들과 그들 간의 관계들을 표현</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Application Interface</x:t>
+  </x:si>
+  <x:si>
+    <x:t>소프트웨어 모듈의 재사용성이 향상된다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>최대 전송속도는 1000 kbps 이다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>모니터의 경계에서 상호배제가 시행된다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Direct Linking Loader</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로킹 단위가 크면 병행성 수준이 낮아진다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Compile and Go Loader</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RSA는 공개키/비밀키 암호화 기법이다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>자료추상화와 정보은폐 기법을 기초로 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>중앙처리장치의 시간이 이용이 비효율적이다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>보헴 (Boehm)이 제안한 소스 코드 (Source Code) 의 규모에 의한 비용예측 모델이다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>소프트웨어 사용자들이 소프트웨어 사용 방법을 신속히 숙지할 수 있도록 개발된 자동화 패키지이다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>필요한 레코드를 삽입, 삭제, 수정하는 경우 파일을 재구성해야 하므로 파일 전체를 복사해야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>정규화가 잘못되면 데이터의 불필요한 중복이 야기되어 릴레이션을 조작할 때 문제가 발생할 수 있다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>파일 탐색 효율이 우수하며, 접근 시간 및 응답 시간이 빠르기 때문에 대화형 처리에 적합하다.</x:t>
+  </x:si>
+  <x:si>
     <x:t>소프트웨어 프로젝트 유형에 따라 다르게 책정되는 비용 산정 수식(Equation)을 이용한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>보헴 (Boehm)이 제안한 소스 코드 (Source Code) 의 규모에 의한 비용예측 모델이다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>정규화가 잘못되면 데이터의 불필요한 중복이 야기되어 릴레이션을 조작할 때 문제가 발생할 수 있다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>소프트웨어 사용자들이 소프트웨어 사용 방법을 신속히 숙지할 수 있도록 개발된 자동화 패키지이다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>필요한 레코드를 삽입, 삭제, 수정하는 경우 파일을 재구성해야 하므로 파일 전체를 복사해야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>파일 탐색 효율이 우수하며, 접근 시간 및 응답 시간이 빠르기 때문에 대화형 처리에 적합하다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>프로젝트 자체 요소로 문제의 복잡도, 시스템의 규모, 요구되는 신뢰도 등이 있다</x:t>
-  </x:si>
-  <x:si>
-    <x:t>COCOMO 방법은 가정과 제약조건이 없어 모든 시스템에 동일하게 적용할 수 맀다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>분산된 노드들은 통신 네트워크를 이용하여 메시지를 주고 받은으로서 정보를 교환한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사용자에게 동적으로 할당할 수 있는 일반적인 자원들이 각 노드에 분산되어 있다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>정규화의 목적은 각 릴레이션에 분산된 종속성을 하나의 릴레이션에 통합 하는 것이다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>많은 원격 접근들은 캐싱이 사용될 때 지역 캐쉬에 의해서 효율적으로 처리될 수 맀다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>여러 종류의 MO 수행시 CPU사이클 타임이 실제적인 오퍼레이션 시간보다 길다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>모든 원격 접근은 원격- 서비스 방법이 사용 될 때 네트워크를 통해서만 처리된다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이상(Anomaly) 현상은 데이터들 간에 존재하는 함수 종속이 하나의 원인이 될 수 있다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Person-Month(PM) 당 제작되는 평균 LOC(Line of Code) 등이 있다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>개체 타입과 이들 간의 관계 타입을 기본 요소로 이용하여 현실 세계를 개념적으로 표현한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사용자에 대한 응답시간 최소화</x:t>
-  </x:si>
-  <x:si>
-    <x:t>③ → ② → ④ → ⑤ → ①</x:t>
-  </x:si>
-  <x:si>
-    <x:t>두 개의 임계구역이 존재한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Reed-Solomon code</x:t>
-  </x:si>
-  <x:si>
-    <x:t>소프트웨어 재사용성이 높아진다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Cartesian product</x:t>
-  </x:si>
-  <x:si>
-    <x:t>모든 세마포어의 기본 값은 2이다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Common Facilities</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Domain Interface</x:t>
-  </x:si>
-  <x:si>
-    <x:t>프로그램 개발 인력이 감소된다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Common operation</x:t>
-  </x:si>
-  <x:si>
-    <x:t>(ㄱ), (ㄴ), (ㄷ), (ㄹ)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Partially Connected</x:t>
-  </x:si>
-  <x:si>
-    <x:t>① → ③ → ② → ⑤ → ④</x:t>
-  </x:si>
-  <x:si>
-    <x:t>② → ③ → ④ → ⑤ → ①</x:t>
-  </x:si>
-  <x:si>
-    <x:t>④ → ③ → ② → ⑤ → ①</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DES는 비대칭형 암호화 기법이다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>작업일정과 비용의 추정치가 부정확</x:t>
-  </x:si>
-  <x:si>
-    <x:t>인터리빙(interleaving)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>가드 밴드(Guard Band)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>베이스 밴드 전송 방식을 사용한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>소프트웨어 개발 요구의 다양화</x:t>
-  </x:si>
-  <x:si>
-    <x:t>재구성(restructuring)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CPLD(Complex Programmable Logic Device)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사용자는 특정 자원의 물리적 위치를 알지 못하여도 사용할 수 있다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>같은 규모의 소프트웨어라도 그 유형에 따라 비용이 다르게 산정된다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>모니터 외부에서도 모니터 내의 데이터를 직접 액세스 할 수 있다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>프래그 - 주소영역 - 제어영역 - 정보영역 - FCS - 프래그</x:t>
-  </x:si>
-  <x:si>
-    <x:t>프래그 - 정보영역 - 제어영역 - 주소영역 - FCS - 프래그</x:t>
-  </x:si>
-  <x:si>
-    <x:t>프래그 - 주소영역 - 정보영역 - 제어영역 - FCS - 프래그</x:t>
-  </x:si>
-  <x:si>
-    <x:t>개발에 필요한 인적 자원, 하드웨어 자원, 소프트웨어 자원 등이 있다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>프래그 - 제어영역 - 주소영역 - 정보영역 - FCS - 프래그</x:t>
-  </x:si>
-  <x:si>
-    <x:t>시스템 전체의 정책을 결정하는 어떤 통합적인 제거 기능은 필요하지 않다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>상위 클래스의 모든 속성과 연산을 하위 클래스가 물려받는 것을 의미한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>한 릴레이션을 구성하는 속성들 사이의 순서는 존재하며, 중요한 의미를 가진다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로킹은 파일 단위로 이루어지며, 레코드 또는 필드는 로킹 단위가 될 수 없다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>캐쉬- 일관성 문제는 쓰기 접근 빈도가 많은 접근형태에서 캐싱이 우수하다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SELECT, INSERT, DELETE, ALTER</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DES(Data Encryption Standard)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>A→B 이고 B→C 일 때, B→A 를 만족하는 관계</x:t>
-  </x:si>
-  <x:si>
-    <x:t>A→B 이고 B→C 일 때, A→C 를 만족하는 관계</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DELETE, UPDATE, CREATE, ALTER</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SELECT, INSERT, DELETE, UPDATE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>E-R 다이어그램에서 개체 타입은 사각형으로 나타낸다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>INSERT, DELETE, UPDATE, DROP</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로킹 단위가 작으면 로크(lock)의 수가 적어진다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>A→B 이고 B→C 일 때, C→A 를 만족하는 관계</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2- 주소 명령어 형식은 MOVE 명령이 필요하다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PAL(Programmable Array Logic)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>FEAL(Fast Encryption Algorithm)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>새로운 소프트웨어의 오류율이 고객 불만과 신뢰결여를 유발</x:t>
-  </x:si>
-  <x:si>
-    <x:t>공유 데이터와 이 데이터를 처리하는 프로시저로 구성된다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>생산자/소비자를 구현하는 세마포어의 초기 값은 2이다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>소프트웨어 규모의 증대와 복잡도에 따른 개발 비용의 감소</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PLA(Programmable Logic Array)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>A→B 이고 B→C 일 때, C→B 를 만족하는 관계</x:t>
-  </x:si>
-  <x:si>
-    <x:t>디지털 서명은 비대칭형 암호 알고리즘을 사용 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>정규화를 거치지 않으면 여러 가지 상이한 종류의 정보를 하나의 릴레이션으로 표현하여 그 릴레이이션을 조작할 때 이상(Anomaly) 현상이 발생할 수 있다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>어떤 형태의 입출력 매체에서도 처리가 가능하다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>한 릴레이션에 포함된 튜플 사이에는 순서가 없다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>캐쉬- 일관성 문제는 캐싱의 가장 큰 결점이다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>임계구역에 2개의 프로세서가 들어갈 수 있다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DES 알고리즘에서 키 관리가 매우 중요하다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로킹 단위가 크면 병행 제어 기법이 복잡해진다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1- 주소 명령어 형식은 누산기를 사용한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>E-R 다이어그램에서 속성은 타원으로 나타낸다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>한 릴레이션에 포함된 튜플들은 모두 상이한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Multiaccess Bus Connected</x:t>
-  </x:si>
-  <x:si>
-    <x:t>소프트웨어 유지보수를 간편하게 수행할 수 있다</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주로 이더넷(Ethernet)에서 사용된다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>자동화된 기법을 통해 소프트웨어 품질이 향상된다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RSA(Rivest Shamir Adleman)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>시스템 개발을 위한 분석과 설계가 용이하다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>역공학(reverse engineering)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MO이 끝나고 다음 오퍼레이션이 수행될 될 때까지 시간지연이 있게 되어 CPU 처리 속도가 느려진다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>연속적인 레코드의 저장에 의해 레코드 사이에 빈 공간이 존재하지 않으므로 기억장치의 효율적인 이용이 가능하다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Logical Schema → Requirement Formulation → Conceptual Schema → Physical Schema</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Logical Schema → Requirement Formulation → Physical Schema → Conceptual Schema</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Requirement Formulation → Conceptual Schema → Physical Schema → Logical Schema</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Requirement Formulation → Conceptual Schema → Logical Schema → Physical Schema</x:t>
-  </x:si>
-  <x:si>
-    <x:t>σA1(πP(R1))</x:t>
-  </x:si>
-  <x:si>
-    <x:t>σR1(πP(A1))</x:t>
-  </x:si>
-  <x:si>
-    <x:t>πR1(σP(A1))</x:t>
-  </x:si>
-  <x:si>
-    <x:t>πA1(σP(R1))</x:t>
-  </x:si>
-  <x:si>
-    <x:t>(ㄴ), (ㄷ)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>시스템 활용도 최대화</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Overflow</x:t>
-  </x:si>
-  <x:si>
-    <x:t>consistency</x:t>
-  </x:si>
-  <x:si>
-    <x:t>durability</x:t>
-  </x:si>
-  <x:si>
-    <x:t>atomicity</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Underflow</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Top = Top+1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GROUP BY</x:t>
-  </x:si>
-  <x:si>
-    <x:t>isolation</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Strategy 기능</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Top = Top-2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ORDER BY</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Control 기능</x:t>
-  </x:si>
-  <x:si>
-    <x:t>24F5H 번지</x:t>
-  </x:si>
-  <x:si>
-    <x:t>24F8H 번지</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Cardinality</x:t>
-  </x:si>
-  <x:si>
-    <x:t>256DH 번지</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Attribute</x:t>
-  </x:si>
-  <x:si>
-    <x:t>24F2H 번지</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">3-2-1-4-5	</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5-3-2-4-1</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">3-2-4-1-5	</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5-3-2-1-4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>매크로 컴파일러</x:t>
-  </x:si>
-  <x:si>
-    <x:t>실행(Execute)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>멀티 프로그래밍</x:t>
-  </x:si>
-  <x:si>
-    <x:t>메크로 어셈블러</x:t>
-  </x:si>
-  <x:si>
-    <x:t>메모리(Memory)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>리얼타임 프로그래밍</x:t>
-  </x:si>
-  <x:si>
-    <x:t>일괄처리 프로그래밍</x:t>
-  </x:si>
-  <x:si>
-    <x:t>인출(Fetch)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>분산처리 프로그래밍</x:t>
-  </x:si>
-  <x:si>
-    <x:t>크로스 어셈블러</x:t>
-  </x:si>
-  <x:si>
-    <x:t>emulation</x:t>
-  </x:si>
-  <x:si>
-    <x:t>interrupt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>handshaking</x:t>
-  </x:si>
-  <x:si>
-    <x:t>입출력 프로세서</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이단계 디렉토리</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주기억장치에 상주</x:t>
-  </x:si>
-  <x:si>
-    <x:t>일단계 디렉토리</x:t>
-  </x:si>
-  <x:si>
-    <x:t>입출력 방향지정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>트리 구조 디렉토리</x:t>
-  </x:si>
-  <x:si>
-    <x:t>비주기 디렉토리</x:t>
-  </x:si>
-  <x:si>
-    <x:t>파이프라인 기능</x:t>
-  </x:si>
-  <x:si>
-    <x:t>디스크 공간 확보</x:t>
-  </x:si>
-  <x:si>
-    <x:t>프로세스 생성정보</x:t>
-  </x:si>
-  <x:si>
-    <x:t>입/출력의 인터럽트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기계 검사 인터럽트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>프로세스 제어정보</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SVC 인터럽트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>평균 반응시간의 단축</x:t>
-  </x:si>
-  <x:si>
-    <x:t>프로세스 식별정보</x:t>
-  </x:si>
-  <x:si>
-    <x:t>응답시간의 최소화</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Source Code</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hipo-chart</x:t>
-  </x:si>
-  <x:si>
-    <x:t>입·출력 인터럽트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>BOOT BLOCK</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Test Case</x:t>
-  </x:si>
-  <x:si>
-    <x:t>INODE LIST</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SUPER BLOCK</x:t>
-  </x:si>
-  <x:si>
-    <x:t>USER BLOCK</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Reliability</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Correctness</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Abstraction</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Portability</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Efficiency</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Inheritance</x:t>
-  </x:si>
-  <x:si>
-    <x:t>데이터 흐름의 표현</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1, 2, 3, 4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>데이터 구조의 표현</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4GT Model</x:t>
-  </x:si>
-  <x:si>
-    <x:t>데이터 사전을 표현</x:t>
-  </x:si>
-  <x:si>
-    <x:t>요구사항 정의 문서화</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Flow Chart</x:t>
-  </x:si>
-  <x:si>
-    <x:t>HIPO Chart</x:t>
-  </x:si>
-  <x:si>
-    <x:t>10.240.0.0</x:t>
-  </x:si>
-  <x:si>
-    <x:t>10.0.0.32</x:t>
-  </x:si>
-  <x:si>
-    <x:t>설계 명세서 작성</x:t>
-  </x:si>
-  <x:si>
-    <x:t>슬립(slip)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>10.1.16.3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Box Diagram</x:t>
-  </x:si>
-  <x:si>
-    <x:t>군계수 체크 방식</x:t>
-  </x:si>
-  <x:si>
-    <x:t>10.29.240.0</x:t>
-  </x:si>
-  <x:si>
-    <x:t>패리티 체크 방식</x:t>
-  </x:si>
-  <x:si>
-    <x:t>슬롯(Slot)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>버퍼(Buffer)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>전송 오류 검출</x:t>
-  </x:si>
-  <x:si>
-    <x:t>채널(Channel)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>구문(syntax)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>타이밍(timing)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>개체(entity)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>channel</x:t>
-  </x:si>
-  <x:si>
-    <x:t>NOT 연산</x:t>
-  </x:si>
-  <x:si>
-    <x:t>XOR 연산</x:t>
-  </x:si>
-  <x:si>
-    <x:t>크로스 링커</x:t>
-  </x:si>
-  <x:si>
-    <x:t>OR 연산</x:t>
-  </x:si>
-  <x:si>
-    <x:t>UPDATE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>제어규칙</x:t>
-  </x:si>
-  <x:si>
-    <x:t>FIFO</x:t>
-  </x:si>
-  <x:si>
-    <x:t>0011</x:t>
-  </x:si>
-  <x:si>
-    <x:t>영역 2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>JOIN</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Degree</x:t>
-  </x:si>
-  <x:si>
-    <x:t>데이터 버스</x:t>
-  </x:si>
-  <x:si>
-    <x:t>분기 번지</x:t>
-  </x:si>
-  <x:si>
-    <x:t>보기내용</x:t>
-  </x:si>
-  <x:si>
-    <x:t>보기번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>영역 1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>영역 3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>문제고유번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AND 연산</x:t>
-  </x:si>
-  <x:si>
-    <x:t>제약조건</x:t>
-  </x:si>
-  <x:si>
-    <x:t>영역 4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PEOPLE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DSSS</x:t>
-  </x:si>
-  <x:si>
-    <x:t>데이터 처리</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기능적 분석</x:t>
-  </x:si>
-  <x:si>
-    <x:t>FHSS</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주소 인식</x:t>
-  </x:si>
-  <x:si>
-    <x:t>처리율 극대화</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1, 4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>정보 저장</x:t>
-  </x:si>
-  <x:si>
-    <x:t>타당성 조사</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RFCOMM</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1, 2, 3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>260K</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PASSING</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1, 2, 4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>토큰버스</x:t>
-  </x:si>
-  <x:si>
-    <x:t>FDDI</x:t>
-  </x:si>
-  <x:si>
-    <x:t>OFDM</x:t>
-  </x:si>
-  <x:si>
-    <x:t>430K</x:t>
-  </x:si>
-  <x:si>
-    <x:t>chmod</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DPCM</x:t>
-  </x:si>
-  <x:si>
-    <x:t>LAPB</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PROBLEM</x:t>
-  </x:si>
-  <x:si>
-    <x:t>실시간 분석</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PROCESS</x:t>
-  </x:si>
-  <x:si>
-    <x:t>170K</x:t>
-  </x:si>
-  <x:si>
-    <x:t>480K</x:t>
-  </x:si>
-  <x:si>
-    <x:t>L2CAP</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SQD 방식</x:t>
-  </x:si>
-  <x:si>
-    <x:t>외부 인터럽트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>구조적 분석</x:t>
-  </x:si>
-  <x:si>
-    <x:t>객체지향 분석</x:t>
-  </x:si>
-  <x:si>
-    <x:t>LAPD</x:t>
-  </x:si>
-  <x:si>
-    <x:t>LAPM</x:t>
-  </x:si>
-  <x:si>
-    <x:t>LAPX</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1 Mbytes/sec</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1000 Mbytes/sec</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Micro operation</x:t>
-  </x:si>
-  <x:si>
-    <x:t>(ㄱ), (ㄷ), (ㄹ)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3, 4, 8, 7, 9</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3, 8, 4, 9, 7</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Count operation</x:t>
-  </x:si>
-  <x:si>
-    <x:t>-256 ~ +256'</x:t>
-  </x:si>
-  <x:si>
-    <x:t>-128 ~ +128'</x:t>
-  </x:si>
-  <x:si>
-    <x:t>-256 ~ +127'</x:t>
-  </x:si>
-  <x:si>
-    <x:t>-128 ~ +127'</x:t>
-  </x:si>
-  <x:si>
-    <x:t>제어장치의 구현이 간단하다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Axis operation</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Definition 기능</x:t>
-  </x:si>
-  <x:si>
-    <x:t>데이터베이스 일관성 유지</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Manipulation 기능</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7, 8, 3, 4, 9</x:t>
-  </x:si>
-  <x:si>
-    <x:t>10 Mbytes/sec</x:t>
-  </x:si>
-  <x:si>
-    <x:t>데이터베이스 공유도 최소화</x:t>
-  </x:si>
-  <x:si>
-    <x:t>100 Mbytes/sec</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3, 4, 9 ,7, 8</x:t>
-  </x:si>
-  <x:si>
-    <x:t>프로세스(CPU) 상태정보</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ring Connected</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Project Plan</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Absolute Loader</x:t>
-  </x:si>
-  <x:si>
-    <x:t>인터페이스가 단순화 된다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Fully Connected</x:t>
-  </x:si>
-  <x:si>
-    <x:t>간접(Indirect)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Polymorphism</x:t>
-  </x:si>
-  <x:si>
-    <x:t>프램그램 유지보수가 용이다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Dynarnic Loader</x:t>
-  </x:si>
-  <x:si>
-    <x:t>가-데이터, 나- 명령문</x:t>
-  </x:si>
-  <x:si>
-    <x:t>가- 동사, 나- 명사</x:t>
-  </x:si>
-  <x:si>
-    <x:t>자체의 내장 명령어 제공</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User Interface</x:t>
-  </x:si>
-  <x:si>
-    <x:t>가-명령문, 나- 의문문</x:t>
-  </x:si>
-  <x:si>
-    <x:t>프로그램 검사 인터럽트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>프로그램의 확장성이 있다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>가-의문문, 나- 제어문</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Encapsulation</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Spiral Model</x:t>
-  </x:si>
-  <x:si>
-    <x:t>비용과 일정에 대한 제약설정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>폴링 (polling)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>정 마크(정 스페이스)방식</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Waterfall Model</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Prototype Model</x:t>
-  </x:si>
-  <x:si>
-    <x:t>분석(analysis)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>의미(semantic)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이식(migeation)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>피기백(piggyback)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>(ㄱ)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>F</x:t>
-  </x:si>
-  <x:si>
-    <x:t>개체</x:t>
-  </x:si>
-  <x:si>
-    <x:t>D</x:t>
-  </x:si>
-  <x:si>
-    <x:t>E</x:t>
-  </x:si>
-  <x:si>
-    <x:t>A</x:t>
-  </x:si>
-  <x:si>
-    <x:t>도메인</x:t>
-  </x:si>
-  <x:si>
-    <x:t>속성</x:t>
-  </x:si>
-  <x:si>
-    <x:t>10H</x:t>
-  </x:si>
-  <x:si>
-    <x:t>누산기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>메모리</x:t>
-  </x:si>
-  <x:si>
-    <x:t>11H</x:t>
-  </x:si>
-  <x:si>
-    <x:t>15H</x:t>
-  </x:si>
-  <x:si>
-    <x:t>12H</x:t>
-  </x:si>
-  <x:si>
-    <x:t>X1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>X3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>X2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DNA</x:t>
-  </x:si>
-  <x:si>
-    <x:t>채널</x:t>
-  </x:si>
-  <x:si>
-    <x:t>X₀</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MFQ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>HRN</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RR</x:t>
-  </x:si>
-  <x:si>
-    <x:t>cat</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ls</x:t>
-  </x:si>
-  <x:si>
-    <x:t>cp</x:t>
-  </x:si>
-  <x:si>
-    <x:t>무결성</x:t>
-  </x:si>
-  <x:si>
-    <x:t>일관성</x:t>
-  </x:si>
-  <x:si>
-    <x:t>정확성</x:t>
-  </x:si>
-  <x:si>
-    <x:t>간결성</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2계층</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4계층</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3계층</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TDM</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1계층</x:t>
-  </x:si>
-  <x:si>
-    <x:t>HID</x:t>
-  </x:si>
-  <x:si>
-    <x:t>FDM</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DM</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RF</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SOH</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ACK</x:t>
-  </x:si>
-  <x:si>
-    <x:t>LPC</x:t>
-  </x:si>
-  <x:si>
-    <x:t>EOT</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SYN</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이더넷</x:t>
-  </x:si>
-  <x:si>
-    <x:t>토큰링</x:t>
-  </x:si>
-  <x:si>
-    <x:t>변경 발생 시 오류의 파급효과가 적다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>소프트웨어 모듈의 재사용성이 향상된다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Application Interface</x:t>
-  </x:si>
-  <x:si>
-    <x:t>데이터 구조들과 그들 간의 관계들을 표현</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Control Specification</x:t>
-  </x:si>
-  <x:si>
-    <x:t>전송 매체는 UTP(꼬임쌍선) 이다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>최대 전송속도는 1000 kbps 이다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로킹 단위가 크면 병행성 수준이 낮아진다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>중앙처리장치의 시간이 이용이 비효율적이다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>모니터의 경계에서 상호배제가 시행된다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>자료추상화와 정보은폐 기법을 기초로 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Direct Linking Loader</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Compile and Go Loader</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RSA는 공개키/비밀키 암호화 기법이다.</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -1320,7 +1320,6 @@
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1365,7 +1364,6 @@
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1442,7 +1440,6 @@
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1481,7 +1478,6 @@
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1504,7 +1500,6 @@
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1537,7 +1532,6 @@
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1585,7 +1579,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1641,7 +1634,6 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1676,7 +1668,6 @@
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1709,7 +1700,6 @@
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1732,7 +1722,6 @@
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1766,7 +1755,7 @@
       </x:fill>
     </x:dxf>
   </x:dxfs>
-  <x:tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+  <x:tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <x:tableStyle name="PivotStyleLight16" pivot="1" table="0" count="11">
       <x:tableStyleElement type="headerRow" size="1" dxfId="0"/>
       <x:tableStyleElement type="totalRow" size="1" dxfId="1"/>
@@ -2072,7 +2061,7 @@
   <x:sheetViews>
     <x:sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" workbookViewId="0">
       <x:pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <x:selection pane="bottomLeft" activeCell="I18" activeCellId="0" sqref="I18:I18"/>
+      <x:selection pane="bottomLeft" activeCell="C5" activeCellId="0" sqref="C5:C5"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="16.399999999999999"/>
@@ -2083,13 +2072,13 @@
   <x:sheetData>
     <x:row r="1" spans="1:3" ht="16.75">
       <x:c r="A1" s="2" t="s">
-        <x:v>217</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="B1" s="1" t="s">
-        <x:v>214</x:v>
+        <x:v>292</x:v>
       </x:c>
       <x:c r="C1" s="1" t="s">
-        <x:v>213</x:v>
+        <x:v>301</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:3">
@@ -2100,7 +2089,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C2" s="4" t="s">
-        <x:v>63</x:v>
+        <x:v>262</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:3">
@@ -2111,7 +2100,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="C3" s="4" t="s">
-        <x:v>69</x:v>
+        <x:v>258</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:3">
@@ -2122,7 +2111,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="C4" s="4" t="s">
-        <x:v>62</x:v>
+        <x:v>257</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:3">
@@ -2133,7 +2122,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="C5" s="4" t="s">
-        <x:v>78</x:v>
+        <x:v>259</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:3">
@@ -2144,7 +2133,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C6" s="4" t="s">
-        <x:v>105</x:v>
+        <x:v>162</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:3">
@@ -2155,7 +2144,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="C7" s="4" t="s">
-        <x:v>103</x:v>
+        <x:v>163</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:3">
@@ -2166,7 +2155,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="C8" s="4" t="s">
-        <x:v>106</x:v>
+        <x:v>164</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:3">
@@ -2177,7 +2166,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="C9" s="4" t="s">
-        <x:v>104</x:v>
+        <x:v>161</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:3">
@@ -2188,7 +2177,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C10" s="4" t="s">
-        <x:v>64</x:v>
+        <x:v>272</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:3">
@@ -2199,7 +2188,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="C11" s="4" t="s">
-        <x:v>67</x:v>
+        <x:v>265</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:3">
@@ -2210,7 +2199,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="C12" s="4" t="s">
-        <x:v>65</x:v>
+        <x:v>263</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:3">
@@ -2221,7 +2210,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="C13" s="4" t="s">
-        <x:v>60</x:v>
+        <x:v>269</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:3">
@@ -2232,7 +2221,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C14" s="4" t="s">
-        <x:v>101</x:v>
+        <x:v>67</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:3">
@@ -2243,7 +2232,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="C15" s="4" t="s">
-        <x:v>99</x:v>
+        <x:v>64</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:3">
@@ -2254,7 +2243,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="C16" s="4" t="s">
-        <x:v>102</x:v>
+        <x:v>66</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:3">
@@ -2265,7 +2254,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="C17" s="4" t="s">
-        <x:v>100</x:v>
+        <x:v>65</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:3">
@@ -2276,7 +2265,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C18" s="4" t="s">
-        <x:v>311</x:v>
+        <x:v>24</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:3">
@@ -2287,7 +2276,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="C19" s="4" t="s">
-        <x:v>309</x:v>
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:3">
@@ -2298,7 +2287,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="C20" s="4" t="s">
-        <x:v>310</x:v>
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:3">
@@ -2309,7 +2298,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="C21" s="4" t="s">
-        <x:v>307</x:v>
+        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:3">
@@ -2320,7 +2309,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C22" s="4" t="s">
-        <x:v>306</x:v>
+        <x:v>29</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:3">
@@ -2331,7 +2320,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="C23" s="4" t="s">
-        <x:v>107</x:v>
+        <x:v>165</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:3">
@@ -2342,7 +2331,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="C24" s="4" t="s">
-        <x:v>259</x:v>
+        <x:v>119</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:3">
@@ -2353,7 +2342,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="C25" s="4" t="s">
-        <x:v>34</x:v>
+        <x:v>91</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:3">
@@ -2364,7 +2353,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C26" s="4" t="s">
-        <x:v>82</x:v>
+        <x:v>73</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:3">
@@ -2375,7 +2364,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="C27" s="4" t="s">
-        <x:v>4</x:v>
+        <x:v>86</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:3">
@@ -2386,7 +2375,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="C28" s="4" t="s">
-        <x:v>89</x:v>
+        <x:v>78</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:3">
@@ -2397,7 +2386,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="C29" s="4" t="s">
-        <x:v>57</x:v>
+        <x:v>49</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:3">
@@ -2408,7 +2397,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C30" s="4" t="s">
-        <x:v>23</x:v>
+        <x:v>108</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:3">
@@ -2419,7 +2408,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="C31" s="4" t="s">
-        <x:v>108</x:v>
+        <x:v>166</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:3">
@@ -2430,7 +2419,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="C32" s="4" t="s">
-        <x:v>270</x:v>
+        <x:v>144</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:3">
@@ -2441,7 +2430,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="C33" s="4" t="s">
-        <x:v>274</x:v>
+        <x:v>127</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:3">
@@ -2452,7 +2441,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C34" s="4" t="s">
-        <x:v>308</x:v>
+        <x:v>18</x:v>
       </x:c>
     </x:row>
     <x:row r="35" spans="1:3">
@@ -2463,7 +2452,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="C35" s="4" t="s">
-        <x:v>313</x:v>
+        <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="36" spans="1:3">
@@ -2474,7 +2463,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="C36" s="4" t="s">
-        <x:v>312</x:v>
+        <x:v>27</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:3">
@@ -2485,7 +2474,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="C37" s="4" t="s">
-        <x:v>219</x:v>
+        <x:v>314</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:3">
@@ -2496,7 +2485,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C38" s="4" t="s">
-        <x:v>0</x:v>
+        <x:v>84</x:v>
       </x:c>
     </x:row>
     <x:row r="39" spans="1:3">
@@ -2507,7 +2496,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="C39" s="4" t="s">
-        <x:v>22</x:v>
+        <x:v>343</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="1:3">
@@ -2518,7 +2507,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="C40" s="4" t="s">
-        <x:v>66</x:v>
+        <x:v>276</x:v>
       </x:c>
     </x:row>
     <x:row r="41" spans="1:3">
@@ -2529,7 +2518,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="C41" s="4" t="s">
-        <x:v>88</x:v>
+        <x:v>71</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:3">
@@ -2540,7 +2529,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C42" s="4" t="s">
-        <x:v>109</x:v>
+        <x:v>167</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="1:3">
@@ -2551,7 +2540,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="C43" s="4" t="s">
-        <x:v>114</x:v>
+        <x:v>173</x:v>
       </x:c>
     </x:row>
     <x:row r="44" spans="1:3">
@@ -2562,7 +2551,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="C44" s="4" t="s">
-        <x:v>113</x:v>
+        <x:v>177</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="1:3">
@@ -2573,7 +2562,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="C45" s="4" t="s">
-        <x:v>118</x:v>
+        <x:v>175</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:3">
@@ -2584,7 +2573,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C46" s="4" t="s">
-        <x:v>269</x:v>
+        <x:v>145</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:3">
@@ -2595,7 +2584,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="C47" s="4" t="s">
-        <x:v>120</x:v>
+        <x:v>172</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:3">
@@ -2606,7 +2595,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="C48" s="4" t="s">
-        <x:v>271</x:v>
+        <x:v>128</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:3">
@@ -2617,7 +2606,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="C49" s="4" t="s">
-        <x:v>117</x:v>
+        <x:v>170</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:3">
@@ -2628,7 +2617,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C50" s="4" t="s">
-        <x:v>115</x:v>
+        <x:v>178</x:v>
       </x:c>
     </x:row>
     <x:row r="51" spans="1:3">
@@ -2639,7 +2628,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="C51" s="4" t="s">
-        <x:v>119</x:v>
+        <x:v>174</x:v>
       </x:c>
     </x:row>
     <x:row r="52" spans="1:3">
@@ -2650,7 +2639,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="C52" s="4" t="s">
-        <x:v>204</x:v>
+        <x:v>303</x:v>
       </x:c>
     </x:row>
     <x:row r="53" spans="1:3">
@@ -2661,7 +2650,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="C53" s="4" t="s">
-        <x:v>209</x:v>
+        <x:v>300</x:v>
       </x:c>
     </x:row>
     <x:row r="54" spans="1:3">
@@ -2672,7 +2661,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C54" s="4" t="s">
-        <x:v>11</x:v>
+        <x:v>364</x:v>
       </x:c>
     </x:row>
     <x:row r="55" spans="1:3">
@@ -2683,7 +2672,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="C55" s="4" t="s">
-        <x:v>98</x:v>
+        <x:v>62</x:v>
       </x:c>
     </x:row>
     <x:row r="56" spans="1:3">
@@ -2694,7 +2683,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="C56" s="4" t="s">
-        <x:v>10</x:v>
+        <x:v>362</x:v>
       </x:c>
     </x:row>
     <x:row r="57" spans="1:3">
@@ -2705,7 +2694,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="C57" s="4" t="s">
-        <x:v>81</x:v>
+        <x:v>74</x:v>
       </x:c>
     </x:row>
     <x:row r="58" spans="1:3">
@@ -2716,7 +2705,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C58" s="4" t="s">
-        <x:v>110</x:v>
+        <x:v>168</x:v>
       </x:c>
     </x:row>
     <x:row r="59" spans="1:3">
@@ -2727,7 +2716,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="C59" s="4" t="s">
-        <x:v>112</x:v>
+        <x:v>176</x:v>
       </x:c>
     </x:row>
     <x:row r="60" spans="1:3">
@@ -2738,7 +2727,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="C60" s="4" t="s">
-        <x:v>116</x:v>
+        <x:v>179</x:v>
       </x:c>
     </x:row>
     <x:row r="61" spans="1:3">
@@ -2749,7 +2738,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="C61" s="4" t="s">
-        <x:v>111</x:v>
+        <x:v>169</x:v>
       </x:c>
     </x:row>
     <x:row r="62" spans="1:3">
@@ -2760,7 +2749,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C62" s="4" t="s">
-        <x:v>359</x:v>
+        <x:v>355</x:v>
       </x:c>
     </x:row>
     <x:row r="63" spans="1:3">
@@ -2771,7 +2760,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="C63" s="4" t="s">
-        <x:v>86</x:v>
+        <x:v>72</x:v>
       </x:c>
     </x:row>
     <x:row r="64" spans="1:3">
@@ -2782,7 +2771,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="C64" s="4" t="s">
-        <x:v>68</x:v>
+        <x:v>264</x:v>
       </x:c>
     </x:row>
     <x:row r="65" spans="1:3">
@@ -2793,7 +2782,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="C65" s="4" t="s">
-        <x:v>58</x:v>
+        <x:v>50</x:v>
       </x:c>
     </x:row>
     <x:row r="66" spans="1:3">
@@ -2804,7 +2793,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C66" s="4" t="s">
-        <x:v>210</x:v>
+        <x:v>298</x:v>
       </x:c>
     </x:row>
     <x:row r="67" spans="1:3">
@@ -2815,7 +2804,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="C67" s="4" t="s">
-        <x:v>123</x:v>
+        <x:v>180</x:v>
       </x:c>
     </x:row>
     <x:row r="68" spans="1:3">
@@ -2826,7 +2815,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="C68" s="4" t="s">
-        <x:v>125</x:v>
+        <x:v>181</x:v>
       </x:c>
     </x:row>
     <x:row r="69" spans="1:3">
@@ -2837,7 +2826,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="C69" s="4" t="s">
-        <x:v>28</x:v>
+        <x:v>109</x:v>
       </x:c>
     </x:row>
     <x:row r="70" spans="1:3">
@@ -2848,7 +2837,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C70" s="4" t="s">
-        <x:v>260</x:v>
+        <x:v>120</x:v>
       </x:c>
     </x:row>
     <x:row r="71" spans="1:3">
@@ -2859,7 +2848,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="C71" s="4" t="s">
-        <x:v>276</x:v>
+        <x:v>129</x:v>
       </x:c>
     </x:row>
     <x:row r="72" spans="1:3">
@@ -2870,7 +2859,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="C72" s="4" t="s">
-        <x:v>272</x:v>
+        <x:v>124</x:v>
       </x:c>
     </x:row>
     <x:row r="73" spans="1:3">
@@ -2881,7 +2870,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="C73" s="4" t="s">
-        <x:v>261</x:v>
+        <x:v>122</x:v>
       </x:c>
     </x:row>
     <x:row r="74" spans="1:3">
@@ -2892,7 +2881,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C74" s="4" t="s">
-        <x:v>80</x:v>
+        <x:v>345</x:v>
       </x:c>
     </x:row>
     <x:row r="75" spans="1:3">
@@ -2903,7 +2892,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="C75" s="4" t="s">
-        <x:v>16</x:v>
+        <x:v>283</x:v>
       </x:c>
     </x:row>
     <x:row r="76" spans="1:3">
@@ -2914,7 +2903,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="C76" s="4" t="s">
-        <x:v>20</x:v>
+        <x:v>344</x:v>
       </x:c>
     </x:row>
     <x:row r="77" spans="1:3">
@@ -2925,7 +2914,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="C77" s="4" t="s">
-        <x:v>8</x:v>
+        <x:v>363</x:v>
       </x:c>
     </x:row>
     <x:row r="78" spans="1:3">
@@ -2980,7 +2969,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C82" s="4" t="s">
-        <x:v>212</x:v>
+        <x:v>294</x:v>
       </x:c>
     </x:row>
     <x:row r="83" spans="1:3">
@@ -2991,7 +2980,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="C83" s="4" t="s">
-        <x:v>316</x:v>
+        <x:v>22</x:v>
       </x:c>
     </x:row>
     <x:row r="84" spans="1:3">
@@ -3002,7 +2991,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="C84" s="4" t="s">
-        <x:v>205</x:v>
+        <x:v>288</x:v>
       </x:c>
     </x:row>
     <x:row r="85" spans="1:3">
@@ -3013,7 +3002,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="C85" s="4" t="s">
-        <x:v>315</x:v>
+        <x:v>28</x:v>
       </x:c>
     </x:row>
     <x:row r="86" spans="1:3">
@@ -3024,7 +3013,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C86" s="5" t="s">
-        <x:v>267</x:v>
+        <x:v>114</x:v>
       </x:c>
     </x:row>
     <x:row r="87" spans="1:3">
@@ -3035,7 +3024,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="C87" s="4" t="s">
-        <x:v>360</x:v>
+        <x:v>359</x:v>
       </x:c>
     </x:row>
     <x:row r="88" spans="1:3">
@@ -3046,7 +3035,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="C88" s="4" t="s">
-        <x:v>18</x:v>
+        <x:v>281</x:v>
       </x:c>
     </x:row>
     <x:row r="89" spans="1:3">
@@ -3057,7 +3046,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="C89" s="4" t="s">
-        <x:v>97</x:v>
+        <x:v>63</x:v>
       </x:c>
     </x:row>
     <x:row r="90" spans="1:3">
@@ -3068,7 +3057,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C90" s="4" t="s">
-        <x:v>126</x:v>
+        <x:v>182</x:v>
       </x:c>
     </x:row>
     <x:row r="91" spans="1:3">
@@ -3079,7 +3068,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="C91" s="4" t="s">
-        <x:v>121</x:v>
+        <x:v>171</x:v>
       </x:c>
     </x:row>
     <x:row r="92" spans="1:3">
@@ -3090,7 +3079,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="C92" s="4" t="s">
-        <x:v>122</x:v>
+        <x:v>185</x:v>
       </x:c>
     </x:row>
     <x:row r="93" spans="1:3">
@@ -3101,7 +3090,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="C93" s="4" t="s">
-        <x:v>124</x:v>
+        <x:v>184</x:v>
       </x:c>
     </x:row>
     <x:row r="94" spans="1:3">
@@ -3112,7 +3101,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C94" s="4" t="s">
-        <x:v>1</x:v>
+        <x:v>82</x:v>
       </x:c>
     </x:row>
     <x:row r="95" spans="1:3">
@@ -3123,7 +3112,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="C95" s="4" t="s">
-        <x:v>87</x:v>
+        <x:v>77</x:v>
       </x:c>
     </x:row>
     <x:row r="96" spans="1:3">
@@ -3134,7 +3123,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="C96" s="4" t="s">
-        <x:v>70</x:v>
+        <x:v>270</x:v>
       </x:c>
     </x:row>
     <x:row r="97" spans="1:3">
@@ -3145,7 +3134,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="C97" s="4" t="s">
-        <x:v>2</x:v>
+        <x:v>83</x:v>
       </x:c>
     </x:row>
     <x:row r="98" spans="1:3">
@@ -3156,7 +3145,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C98" s="4" t="s">
-        <x:v>314</x:v>
+        <x:v>19</x:v>
       </x:c>
     </x:row>
     <x:row r="99" spans="1:3">
@@ -3167,7 +3156,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="C99" s="4" t="s">
-        <x:v>317</x:v>
+        <x:v>30</x:v>
       </x:c>
     </x:row>
     <x:row r="100" spans="1:3">
@@ -3178,7 +3167,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="C100" s="4" t="s">
-        <x:v>319</x:v>
+        <x:v>23</x:v>
       </x:c>
     </x:row>
     <x:row r="101" spans="1:3">
@@ -3189,7 +3178,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="C101" s="4" t="s">
-        <x:v>318</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="102" spans="1:3">
@@ -3244,7 +3233,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C106" s="4" t="s">
-        <x:v>256</x:v>
+        <x:v>118</x:v>
       </x:c>
     </x:row>
     <x:row r="107" spans="1:3">
@@ -3255,7 +3244,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="C107" s="4" t="s">
-        <x:v>273</x:v>
+        <x:v>141</x:v>
       </x:c>
     </x:row>
     <x:row r="108" spans="1:3">
@@ -3266,7 +3255,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="C108" s="4" t="s">
-        <x:v>275</x:v>
+        <x:v>130</x:v>
       </x:c>
     </x:row>
     <x:row r="109" spans="1:3">
@@ -3277,7 +3266,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="C109" s="4" t="s">
-        <x:v>257</x:v>
+        <x:v>117</x:v>
       </x:c>
     </x:row>
     <x:row r="110" spans="1:3">
@@ -3288,7 +3277,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C110" s="4" t="s">
-        <x:v>77</x:v>
+        <x:v>268</x:v>
       </x:c>
     </x:row>
     <x:row r="111" spans="1:3">
@@ -3299,7 +3288,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="C111" s="4" t="s">
-        <x:v>71</x:v>
+        <x:v>274</x:v>
       </x:c>
     </x:row>
     <x:row r="112" spans="1:3">
@@ -3310,7 +3299,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="C112" s="4" t="s">
-        <x:v>5</x:v>
+        <x:v>87</x:v>
       </x:c>
     </x:row>
     <x:row r="113" spans="1:3">
@@ -3321,7 +3310,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="C113" s="4" t="s">
-        <x:v>46</x:v>
+        <x:v>58</x:v>
       </x:c>
     </x:row>
     <x:row r="114" spans="1:3">
@@ -3332,7 +3321,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C114" s="4" t="s">
-        <x:v>33</x:v>
+        <x:v>92</x:v>
       </x:c>
     </x:row>
     <x:row r="115" spans="1:3">
@@ -3343,7 +3332,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="C115" s="4" t="s">
-        <x:v>268</x:v>
+        <x:v>115</x:v>
       </x:c>
     </x:row>
     <x:row r="116" spans="1:3">
@@ -3354,7 +3343,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="C116" s="4" t="s">
-        <x:v>258</x:v>
+        <x:v>116</x:v>
       </x:c>
     </x:row>
     <x:row r="117" spans="1:3">
@@ -3365,7 +3354,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="C117" s="4" t="s">
-        <x:v>262</x:v>
+        <x:v>121</x:v>
       </x:c>
     </x:row>
     <x:row r="118" spans="1:3">
@@ -3376,7 +3365,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C118" s="6" t="s">
-        <x:v>263</x:v>
+        <x:v>123</x:v>
       </x:c>
     </x:row>
     <x:row r="119" spans="1:3">
@@ -3387,7 +3376,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="C119" s="6" t="s">
-        <x:v>266</x:v>
+        <x:v>113</x:v>
       </x:c>
     </x:row>
     <x:row r="120" spans="1:3">
@@ -3398,7 +3387,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="C120" s="6" t="s">
-        <x:v>264</x:v>
+        <x:v>111</x:v>
       </x:c>
     </x:row>
     <x:row r="121" spans="1:3">
@@ -3409,7 +3398,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="C121" s="6" t="s">
-        <x:v>265</x:v>
+        <x:v>112</x:v>
       </x:c>
     </x:row>
     <x:row r="122" spans="1:3">
@@ -3420,7 +3409,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C122" s="5" t="s">
-        <x:v>129</x:v>
+        <x:v>190</x:v>
       </x:c>
     </x:row>
     <x:row r="123" spans="1:3">
@@ -3431,7 +3420,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="C123" s="4" t="s">
-        <x:v>130</x:v>
+        <x:v>199</x:v>
       </x:c>
     </x:row>
     <x:row r="124" spans="1:3">
@@ -3442,7 +3431,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="C124" s="4" t="s">
-        <x:v>127</x:v>
+        <x:v>183</x:v>
       </x:c>
     </x:row>
     <x:row r="125" spans="1:3">
@@ -3453,7 +3442,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="C125" s="4" t="s">
-        <x:v>128</x:v>
+        <x:v>201</x:v>
       </x:c>
     </x:row>
     <x:row r="126" spans="1:3">
@@ -3464,7 +3453,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C126" s="4" t="s">
-        <x:v>201</x:v>
+        <x:v>312</x:v>
       </x:c>
     </x:row>
     <x:row r="127" spans="1:3">
@@ -3475,7 +3464,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="C127" s="4" t="s">
-        <x:v>218</x:v>
+        <x:v>306</x:v>
       </x:c>
     </x:row>
     <x:row r="128" spans="1:3">
@@ -3486,7 +3475,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="C128" s="4" t="s">
-        <x:v>203</x:v>
+        <x:v>293</x:v>
       </x:c>
     </x:row>
     <x:row r="129" spans="1:3">
@@ -3497,7 +3486,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="C129" s="4" t="s">
-        <x:v>200</x:v>
+        <x:v>304</x:v>
       </x:c>
     </x:row>
     <x:row r="130" spans="1:3">
@@ -3508,7 +3497,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C130" s="4" t="s">
-        <x:v>139</x:v>
+        <x:v>196</x:v>
       </x:c>
     </x:row>
     <x:row r="131" spans="1:3">
@@ -3519,7 +3508,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="C131" s="4" t="s">
-        <x:v>137</x:v>
+        <x:v>194</x:v>
       </x:c>
     </x:row>
     <x:row r="132" spans="1:3">
@@ -3530,7 +3519,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="C132" s="4" t="s">
-        <x:v>133</x:v>
+        <x:v>200</x:v>
       </x:c>
     </x:row>
     <x:row r="133" spans="1:3">
@@ -3541,7 +3530,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="C133" s="4" t="s">
-        <x:v>136</x:v>
+        <x:v>197</x:v>
       </x:c>
     </x:row>
     <x:row r="134" spans="1:3">
@@ -3552,7 +3541,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C134" s="4" t="s">
-        <x:v>202</x:v>
+        <x:v>291</x:v>
       </x:c>
     </x:row>
     <x:row r="135" spans="1:3">
@@ -3563,7 +3552,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="C135" s="4" t="s">
-        <x:v>140</x:v>
+        <x:v>188</x:v>
       </x:c>
     </x:row>
     <x:row r="136" spans="1:3">
@@ -3574,7 +3563,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="C136" s="4" t="s">
-        <x:v>134</x:v>
+        <x:v>195</x:v>
       </x:c>
     </x:row>
     <x:row r="137" spans="1:3">
@@ -3585,7 +3574,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="C137" s="4" t="s">
-        <x:v>131</x:v>
+        <x:v>186</x:v>
       </x:c>
     </x:row>
     <x:row r="138" spans="1:3">
@@ -3596,7 +3585,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C138" s="4" t="s">
-        <x:v>138</x:v>
+        <x:v>192</x:v>
       </x:c>
     </x:row>
     <x:row r="139" spans="1:3">
@@ -3607,7 +3596,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="C139" s="4" t="s">
-        <x:v>283</x:v>
+        <x:v>133</x:v>
       </x:c>
     </x:row>
     <x:row r="140" spans="1:3">
@@ -3618,7 +3607,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="C140" s="4" t="s">
-        <x:v>132</x:v>
+        <x:v>191</x:v>
       </x:c>
     </x:row>
     <x:row r="141" spans="1:3">
@@ -3629,7 +3618,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="C141" s="4" t="s">
-        <x:v>135</x:v>
+        <x:v>187</x:v>
       </x:c>
     </x:row>
     <x:row r="142" spans="1:3">
@@ -3640,7 +3629,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C142" s="4" t="s">
-        <x:v>325</x:v>
+        <x:v>32</x:v>
       </x:c>
     </x:row>
     <x:row r="143" spans="1:3">
@@ -3651,7 +3640,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="C143" s="5" t="s">
-        <x:v>320</x:v>
+        <x:v>33</x:v>
       </x:c>
     </x:row>
     <x:row r="144" spans="1:3">
@@ -3662,7 +3651,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="C144" s="5" t="s">
-        <x:v>322</x:v>
+        <x:v>46</x:v>
       </x:c>
     </x:row>
     <x:row r="145" spans="1:3">
@@ -3673,7 +3662,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="C145" s="5" t="s">
-        <x:v>321</x:v>
+        <x:v>34</x:v>
       </x:c>
     </x:row>
     <x:row r="146" spans="1:3">
@@ -3684,7 +3673,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C146" s="5" t="s">
-        <x:v>323</x:v>
+        <x:v>38</x:v>
       </x:c>
     </x:row>
     <x:row r="147" spans="1:3">
@@ -3695,7 +3684,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="C147" s="5" t="s">
-        <x:v>324</x:v>
+        <x:v>41</x:v>
       </x:c>
     </x:row>
     <x:row r="148" spans="1:3">
@@ -3706,7 +3695,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="C148" s="4" t="s">
-        <x:v>211</x:v>
+        <x:v>311</x:v>
       </x:c>
     </x:row>
     <x:row r="149" spans="1:3">
@@ -3717,7 +3706,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="C149" s="5" t="s">
-        <x:v>144</x:v>
+        <x:v>204</x:v>
       </x:c>
     </x:row>
     <x:row r="150" spans="1:3">
@@ -3750,7 +3739,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="C152" s="8" t="s">
-        <x:v>207</x:v>
+        <x:v>290</x:v>
       </x:c>
     </x:row>
     <x:row r="153" spans="1:3">
@@ -3772,7 +3761,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C154" s="5" t="s">
-        <x:v>24</x:v>
+        <x:v>96</x:v>
       </x:c>
     </x:row>
     <x:row r="155" spans="1:3">
@@ -3783,7 +3772,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="C155" s="5" t="s">
-        <x:v>36</x:v>
+        <x:v>99</x:v>
       </x:c>
     </x:row>
     <x:row r="156" spans="1:3">
@@ -3794,7 +3783,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="C156" s="5" t="s">
-        <x:v>37</x:v>
+        <x:v>106</x:v>
       </x:c>
     </x:row>
     <x:row r="157" spans="1:3">
@@ -3805,7 +3794,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="C157" s="5" t="s">
-        <x:v>38</x:v>
+        <x:v>95</x:v>
       </x:c>
     </x:row>
     <x:row r="158" spans="1:3">
@@ -3816,7 +3805,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C158" s="5" t="s">
-        <x:v>199</x:v>
+        <x:v>302</x:v>
       </x:c>
     </x:row>
     <x:row r="159" spans="1:3">
@@ -3827,7 +3816,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="C159" s="5" t="s">
-        <x:v>143</x:v>
+        <x:v>193</x:v>
       </x:c>
     </x:row>
     <x:row r="160" spans="1:3">
@@ -3838,7 +3827,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="C160" s="5" t="s">
-        <x:v>142</x:v>
+        <x:v>198</x:v>
       </x:c>
     </x:row>
     <x:row r="161" spans="1:3">
@@ -3849,7 +3838,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="C161" s="5" t="s">
-        <x:v>141</x:v>
+        <x:v>189</x:v>
       </x:c>
     </x:row>
     <x:row r="162" spans="1:3">
@@ -3860,7 +3849,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C162" s="5" t="s">
-        <x:v>17</x:v>
+        <x:v>285</x:v>
       </x:c>
     </x:row>
     <x:row r="163" spans="1:3">
@@ -3871,7 +3860,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="C163" s="5" t="s">
-        <x:v>83</x:v>
+        <x:v>75</x:v>
       </x:c>
     </x:row>
     <x:row r="164" spans="1:3">
@@ -3882,7 +3871,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="C164" s="5" t="s">
-        <x:v>19</x:v>
+        <x:v>282</x:v>
       </x:c>
     </x:row>
     <x:row r="165" spans="1:3">
@@ -3893,7 +3882,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="C165" s="5" t="s">
-        <x:v>59</x:v>
+        <x:v>277</x:v>
       </x:c>
     </x:row>
     <x:row r="166" spans="1:3">
@@ -3948,7 +3937,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C170" s="5" t="s">
-        <x:v>84</x:v>
+        <x:v>76</x:v>
       </x:c>
     </x:row>
     <x:row r="171" spans="1:3">
@@ -3959,7 +3948,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="C171" s="5" t="s">
-        <x:v>25</x:v>
+        <x:v>104</x:v>
       </x:c>
     </x:row>
     <x:row r="172" spans="1:3">
@@ -3970,7 +3959,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="C172" s="5" t="s">
-        <x:v>29</x:v>
+        <x:v>89</x:v>
       </x:c>
     </x:row>
     <x:row r="173" spans="1:3">
@@ -3981,7 +3970,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="C173" s="5" t="s">
-        <x:v>75</x:v>
+        <x:v>275</x:v>
       </x:c>
     </x:row>
     <x:row r="174" spans="1:3">
@@ -3992,7 +3981,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C174" s="5" t="s">
-        <x:v>206</x:v>
+        <x:v>313</x:v>
       </x:c>
     </x:row>
     <x:row r="175" spans="1:3">
@@ -4003,7 +3992,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="C175" s="5" t="s">
-        <x:v>327</x:v>
+        <x:v>40</x:v>
       </x:c>
     </x:row>
     <x:row r="176" spans="1:3">
@@ -4014,7 +4003,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="C176" s="5" t="s">
-        <x:v>326</x:v>
+        <x:v>35</x:v>
       </x:c>
     </x:row>
     <x:row r="177" spans="1:3">
@@ -4025,7 +4014,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="C177" s="5" t="s">
-        <x:v>328</x:v>
+        <x:v>31</x:v>
       </x:c>
     </x:row>
     <x:row r="178" spans="1:3">
@@ -4036,7 +4025,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C178" s="5" t="s">
-        <x:v>215</x:v>
+        <x:v>299</x:v>
       </x:c>
     </x:row>
     <x:row r="179" spans="1:3">
@@ -4047,7 +4036,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="C179" s="5" t="s">
-        <x:v>208</x:v>
+        <x:v>287</x:v>
       </x:c>
     </x:row>
     <x:row r="180" spans="1:3">
@@ -4058,7 +4047,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="C180" s="5" t="s">
-        <x:v>216</x:v>
+        <x:v>305</x:v>
       </x:c>
     </x:row>
     <x:row r="181" spans="1:3">
@@ -4069,7 +4058,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="C181" s="5" t="s">
-        <x:v>220</x:v>
+        <x:v>295</x:v>
       </x:c>
     </x:row>
     <x:row r="182" spans="1:3">
@@ -4080,7 +4069,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C182" s="5" t="s">
-        <x:v>289</x:v>
+        <x:v>140</x:v>
       </x:c>
     </x:row>
     <x:row r="183" spans="1:3">
@@ -4091,7 +4080,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="C183" s="5" t="s">
-        <x:v>151</x:v>
+        <x:v>205</x:v>
       </x:c>
     </x:row>
     <x:row r="184" spans="1:3">
@@ -4102,7 +4091,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="C184" s="5" t="s">
-        <x:v>146</x:v>
+        <x:v>213</x:v>
       </x:c>
     </x:row>
     <x:row r="185" spans="1:3">
@@ -4113,7 +4102,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="C185" s="5" t="s">
-        <x:v>148</x:v>
+        <x:v>217</x:v>
       </x:c>
     </x:row>
     <x:row r="186" spans="1:3">
@@ -4124,7 +4113,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C186" s="5" t="s">
-        <x:v>147</x:v>
+        <x:v>207</x:v>
       </x:c>
     </x:row>
     <x:row r="187" spans="1:3">
@@ -4135,7 +4124,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="C187" s="5" t="s">
-        <x:v>149</x:v>
+        <x:v>215</x:v>
       </x:c>
     </x:row>
     <x:row r="188" spans="1:3">
@@ -4146,7 +4135,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="C188" s="5" t="s">
-        <x:v>145</x:v>
+        <x:v>210</x:v>
       </x:c>
     </x:row>
     <x:row r="189" spans="1:3">
@@ -4157,7 +4146,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="C189" s="5" t="s">
-        <x:v>150</x:v>
+        <x:v>208</x:v>
       </x:c>
     </x:row>
     <x:row r="190" spans="1:3">
@@ -4168,7 +4157,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C190" s="5" t="s">
-        <x:v>361</x:v>
+        <x:v>353</x:v>
       </x:c>
     </x:row>
     <x:row r="191" spans="1:3">
@@ -4179,7 +4168,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="C191" s="5" t="s">
-        <x:v>362</x:v>
+        <x:v>358</x:v>
       </x:c>
     </x:row>
     <x:row r="192" spans="1:3">
@@ -4190,7 +4179,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="C192" s="5" t="s">
-        <x:v>74</x:v>
+        <x:v>273</x:v>
       </x:c>
     </x:row>
     <x:row r="193" spans="1:3">
@@ -4201,7 +4190,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="C193" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>55</x:v>
       </x:c>
     </x:row>
     <x:row r="194" spans="1:3">
@@ -4212,7 +4201,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C194" s="5" t="s">
-        <x:v>14</x:v>
+        <x:v>280</x:v>
       </x:c>
     </x:row>
     <x:row r="195" spans="1:3">
@@ -4223,7 +4212,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="C195" s="5" t="s">
-        <x:v>15</x:v>
+        <x:v>278</x:v>
       </x:c>
     </x:row>
     <x:row r="196" spans="1:3">
@@ -4234,7 +4223,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="C196" s="5" t="s">
-        <x:v>55</x:v>
+        <x:v>48</x:v>
       </x:c>
     </x:row>
     <x:row r="197" spans="1:3">
@@ -4245,7 +4234,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="C197" s="5" t="s">
-        <x:v>47</x:v>
+        <x:v>57</x:v>
       </x:c>
     </x:row>
     <x:row r="198" spans="1:3">
@@ -4256,7 +4245,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C198" s="5" t="s">
-        <x:v>39</x:v>
+        <x:v>100</x:v>
       </x:c>
     </x:row>
     <x:row r="199" spans="1:3">
@@ -4267,7 +4256,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="C199" s="5" t="s">
-        <x:v>365</x:v>
+        <x:v>357</x:v>
       </x:c>
     </x:row>
     <x:row r="200" spans="1:3">
@@ -4278,7 +4267,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="C200" s="4" t="s">
-        <x:v>79</x:v>
+        <x:v>266</x:v>
       </x:c>
     </x:row>
     <x:row r="201" spans="1:3">
@@ -4289,7 +4278,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="C201" s="4" t="s">
-        <x:v>85</x:v>
+        <x:v>70</x:v>
       </x:c>
     </x:row>
     <x:row r="202" spans="1:3">
@@ -4300,7 +4289,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C202" s="4" t="s">
-        <x:v>247</x:v>
+        <x:v>322</x:v>
       </x:c>
     </x:row>
     <x:row r="203" spans="1:3">
@@ -4311,7 +4300,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="C203" s="4" t="s">
-        <x:v>239</x:v>
+        <x:v>326</x:v>
       </x:c>
     </x:row>
     <x:row r="204" spans="1:3">
@@ -4322,7 +4311,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="C204" s="4" t="s">
-        <x:v>233</x:v>
+        <x:v>335</x:v>
       </x:c>
     </x:row>
     <x:row r="205" spans="1:3">
@@ -4333,7 +4322,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="C205" s="4" t="s">
-        <x:v>246</x:v>
+        <x:v>325</x:v>
       </x:c>
     </x:row>
     <x:row r="206" spans="1:3">
@@ -4344,7 +4333,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C206" s="4" t="s">
-        <x:v>227</x:v>
+        <x:v>315</x:v>
       </x:c>
     </x:row>
     <x:row r="207" spans="1:3">
@@ -4355,7 +4344,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="C207" s="4" t="s">
-        <x:v>158</x:v>
+        <x:v>214</x:v>
       </x:c>
     </x:row>
     <x:row r="208" spans="1:3">
@@ -4366,7 +4355,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="C208" s="4" t="s">
-        <x:v>160</x:v>
+        <x:v>233</x:v>
       </x:c>
     </x:row>
     <x:row r="209" spans="1:3">
@@ -4377,7 +4366,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="C209" s="4" t="s">
-        <x:v>152</x:v>
+        <x:v>209</x:v>
       </x:c>
     </x:row>
     <x:row r="210" spans="1:3">
@@ -4388,7 +4377,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C210" s="4" t="s">
-        <x:v>159</x:v>
+        <x:v>216</x:v>
       </x:c>
     </x:row>
     <x:row r="211" spans="1:3">
@@ -4399,7 +4388,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="C211" s="4" t="s">
-        <x:v>156</x:v>
+        <x:v>203</x:v>
       </x:c>
     </x:row>
     <x:row r="212" spans="1:3">
@@ -4410,7 +4399,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="C212" s="4" t="s">
-        <x:v>277</x:v>
+        <x:v>138</x:v>
       </x:c>
     </x:row>
     <x:row r="213" spans="1:3">
@@ -4421,7 +4410,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="C213" s="4" t="s">
-        <x:v>153</x:v>
+        <x:v>206</x:v>
       </x:c>
     </x:row>
     <x:row r="214" spans="1:3">
@@ -4432,7 +4421,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C214" s="5" t="s">
-        <x:v>280</x:v>
+        <x:v>143</x:v>
       </x:c>
     </x:row>
     <x:row r="215" spans="1:3">
@@ -4443,7 +4432,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="C215" s="5" t="s">
-        <x:v>363</x:v>
+        <x:v>354</x:v>
       </x:c>
     </x:row>
     <x:row r="216" spans="1:3">
@@ -4454,7 +4443,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="C216" s="5" t="s">
-        <x:v>286</x:v>
+        <x:v>135</x:v>
       </x:c>
     </x:row>
     <x:row r="217" spans="1:3">
@@ -4465,7 +4454,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="C217" s="5" t="s">
-        <x:v>364</x:v>
+        <x:v>356</x:v>
       </x:c>
     </x:row>
     <x:row r="218" spans="1:3">
@@ -4476,7 +4465,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C218" s="5" t="s">
-        <x:v>278</x:v>
+        <x:v>142</x:v>
       </x:c>
     </x:row>
     <x:row r="219" spans="1:3">
@@ -4487,7 +4476,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="C219" s="5" t="s">
-        <x:v>90</x:v>
+        <x:v>79</x:v>
       </x:c>
     </x:row>
     <x:row r="220" spans="1:3">
@@ -4498,7 +4487,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="C220" s="5" t="s">
-        <x:v>35</x:v>
+        <x:v>105</x:v>
       </x:c>
     </x:row>
     <x:row r="221" spans="1:3">
@@ -4509,7 +4498,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="C221" s="5" t="s">
-        <x:v>282</x:v>
+        <x:v>134</x:v>
       </x:c>
     </x:row>
     <x:row r="222" spans="1:3">
@@ -4520,7 +4509,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C222" s="4" t="s">
-        <x:v>154</x:v>
+        <x:v>202</x:v>
       </x:c>
     </x:row>
     <x:row r="223" spans="1:3">
@@ -4531,7 +4520,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="C223" s="4" t="s">
-        <x:v>250</x:v>
+        <x:v>337</x:v>
       </x:c>
     </x:row>
     <x:row r="224" spans="1:3">
@@ -4542,7 +4531,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="C224" s="4" t="s">
-        <x:v>155</x:v>
+        <x:v>211</x:v>
       </x:c>
     </x:row>
     <x:row r="225" spans="1:3">
@@ -4553,7 +4542,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="C225" s="4" t="s">
-        <x:v>292</x:v>
+        <x:v>154</x:v>
       </x:c>
     </x:row>
     <x:row r="226" spans="1:3">
@@ -4564,7 +4553,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C226" s="4" t="s">
-        <x:v>61</x:v>
+        <x:v>261</x:v>
       </x:c>
     </x:row>
     <x:row r="227" spans="1:3">
@@ -4575,7 +4564,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="C227" s="4" t="s">
-        <x:v>94</x:v>
+        <x:v>68</x:v>
       </x:c>
     </x:row>
     <x:row r="228" spans="1:3">
@@ -4586,7 +4575,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="C228" s="4" t="s">
-        <x:v>26</x:v>
+        <x:v>98</x:v>
       </x:c>
     </x:row>
     <x:row r="229" spans="1:3">
@@ -4597,7 +4586,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="C229" s="4" t="s">
-        <x:v>72</x:v>
+        <x:v>267</x:v>
       </x:c>
     </x:row>
     <x:row r="230" spans="1:3">
@@ -4608,7 +4597,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C230" s="4" t="s">
-        <x:v>292</x:v>
+        <x:v>154</x:v>
       </x:c>
     </x:row>
     <x:row r="231" spans="1:3">
@@ -4619,7 +4608,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="C231" s="4" t="s">
-        <x:v>157</x:v>
+        <x:v>212</x:v>
       </x:c>
     </x:row>
     <x:row r="232" spans="1:3">
@@ -4630,7 +4619,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="C232" s="4" t="s">
-        <x:v>163</x:v>
+        <x:v>221</x:v>
       </x:c>
     </x:row>
     <x:row r="233" spans="1:3">
@@ -4641,7 +4630,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="C233" s="4" t="s">
-        <x:v>250</x:v>
+        <x:v>337</x:v>
       </x:c>
     </x:row>
     <x:row r="234" spans="1:3">
@@ -4652,7 +4641,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C234" s="4" t="s">
-        <x:v>168</x:v>
+        <x:v>224</x:v>
       </x:c>
     </x:row>
     <x:row r="235" spans="1:3">
@@ -4663,7 +4652,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="C235" s="4" t="s">
-        <x:v>164</x:v>
+        <x:v>222</x:v>
       </x:c>
     </x:row>
     <x:row r="236" spans="1:3">
@@ -4674,7 +4663,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="C236" s="4" t="s">
-        <x:v>166</x:v>
+        <x:v>227</x:v>
       </x:c>
     </x:row>
     <x:row r="237" spans="1:3">
@@ -4685,7 +4674,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="C237" s="4" t="s">
-        <x:v>167</x:v>
+        <x:v>231</x:v>
       </x:c>
     </x:row>
     <x:row r="238" spans="1:3">
@@ -4696,7 +4685,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C238" s="4" t="s">
-        <x:v>331</x:v>
+        <x:v>39</x:v>
       </x:c>
     </x:row>
     <x:row r="239" spans="1:3">
@@ -4707,7 +4696,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="C239" s="4" t="s">
-        <x:v>240</x:v>
+        <x:v>329</x:v>
       </x:c>
     </x:row>
     <x:row r="240" spans="1:3">
@@ -4718,7 +4707,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="C240" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>36</x:v>
       </x:c>
     </x:row>
     <x:row r="241" spans="1:3">
@@ -4729,7 +4718,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="C241" s="4" t="s">
-        <x:v>330</x:v>
+        <x:v>45</x:v>
       </x:c>
     </x:row>
     <x:row r="242" spans="1:3">
@@ -4740,7 +4729,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C242" s="4" t="s">
-        <x:v>162</x:v>
+        <x:v>223</x:v>
       </x:c>
     </x:row>
     <x:row r="243" spans="1:3">
@@ -4751,7 +4740,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="C243" s="4" t="s">
-        <x:v>165</x:v>
+        <x:v>226</x:v>
       </x:c>
     </x:row>
     <x:row r="244" spans="1:3">
@@ -4762,7 +4751,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="C244" s="4" t="s">
-        <x:v>161</x:v>
+        <x:v>220</x:v>
       </x:c>
     </x:row>
     <x:row r="245" spans="1:3">
@@ -4773,7 +4762,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="C245" s="4" t="s">
-        <x:v>279</x:v>
+        <x:v>125</x:v>
       </x:c>
     </x:row>
     <x:row r="246" spans="1:3">
@@ -4784,7 +4773,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C246" s="4" t="s">
-        <x:v>352</x:v>
+        <x:v>348</x:v>
       </x:c>
     </x:row>
     <x:row r="247" spans="1:3">
@@ -4795,7 +4784,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="C247" s="4" t="s">
-        <x:v>281</x:v>
+        <x:v>126</x:v>
       </x:c>
     </x:row>
     <x:row r="248" spans="1:3">
@@ -4806,7 +4795,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="C248" s="4" t="s">
-        <x:v>27</x:v>
+        <x:v>88</x:v>
       </x:c>
     </x:row>
     <x:row r="249" spans="1:3">
@@ -4817,7 +4806,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="C249" s="4" t="s">
-        <x:v>56</x:v>
+        <x:v>51</x:v>
       </x:c>
     </x:row>
     <x:row r="250" spans="1:3">
@@ -4828,7 +4817,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C250" s="4" t="s">
-        <x:v>353</x:v>
+        <x:v>351</x:v>
       </x:c>
     </x:row>
     <x:row r="251" spans="1:3">
@@ -4839,7 +4828,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="C251" s="4" t="s">
-        <x:v>93</x:v>
+        <x:v>69</x:v>
       </x:c>
     </x:row>
     <x:row r="252" spans="1:3">
@@ -4850,7 +4839,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="C252" s="4" t="s">
-        <x:v>9</x:v>
+        <x:v>361</x:v>
       </x:c>
     </x:row>
     <x:row r="253" spans="1:3">
@@ -4861,7 +4850,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="C253" s="4" t="s">
-        <x:v>91</x:v>
+        <x:v>80</x:v>
       </x:c>
     </x:row>
     <x:row r="254" spans="1:3">
@@ -4872,7 +4861,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C254" s="4" t="s">
-        <x:v>30</x:v>
+        <x:v>101</x:v>
       </x:c>
     </x:row>
     <x:row r="255" spans="1:3">
@@ -4883,7 +4872,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="C255" s="4" t="s">
-        <x:v>354</x:v>
+        <x:v>350</x:v>
       </x:c>
     </x:row>
     <x:row r="256" spans="1:3">
@@ -4894,7 +4883,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="C256" s="4" t="s">
-        <x:v>290</x:v>
+        <x:v>139</x:v>
       </x:c>
     </x:row>
     <x:row r="257" spans="1:3">
@@ -4905,7 +4894,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="C257" s="4" t="s">
-        <x:v>31</x:v>
+        <x:v>90</x:v>
       </x:c>
     </x:row>
     <x:row r="258" spans="1:3">
@@ -4916,7 +4905,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C258" s="4" t="s">
-        <x:v>252</x:v>
+        <x:v>331</x:v>
       </x:c>
     </x:row>
     <x:row r="259" spans="1:3">
@@ -4927,7 +4916,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="C259" s="4" t="s">
-        <x:v>251</x:v>
+        <x:v>328</x:v>
       </x:c>
     </x:row>
     <x:row r="260" spans="1:3">
@@ -4938,7 +4927,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="C260" s="4" t="s">
-        <x:v>224</x:v>
+        <x:v>316</x:v>
       </x:c>
     </x:row>
     <x:row r="261" spans="1:3">
@@ -4949,7 +4938,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="C261" s="4" t="s">
-        <x:v>244</x:v>
+        <x:v>333</x:v>
       </x:c>
     </x:row>
     <x:row r="262" spans="1:3">
@@ -4960,7 +4949,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C262" s="4" t="s">
-        <x:v>295</x:v>
+        <x:v>146</x:v>
       </x:c>
     </x:row>
     <x:row r="263" spans="1:3">
@@ -4971,7 +4960,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="C263" s="4" t="s">
-        <x:v>171</x:v>
+        <x:v>219</x:v>
       </x:c>
     </x:row>
     <x:row r="264" spans="1:3">
@@ -4982,7 +4971,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="C264" s="4" t="s">
-        <x:v>174</x:v>
+        <x:v>218</x:v>
       </x:c>
     </x:row>
     <x:row r="265" spans="1:3">
@@ -4993,7 +4982,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="C265" s="4" t="s">
-        <x:v>284</x:v>
+        <x:v>131</x:v>
       </x:c>
     </x:row>
     <x:row r="266" spans="1:3">
@@ -5004,7 +4993,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C266" s="4" t="s">
-        <x:v>95</x:v>
+        <x:v>47</x:v>
       </x:c>
     </x:row>
     <x:row r="267" spans="1:3">
@@ -5015,7 +5004,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="C267" s="4" t="s">
-        <x:v>285</x:v>
+        <x:v>132</x:v>
       </x:c>
     </x:row>
     <x:row r="268" spans="1:3">
@@ -5026,7 +5015,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="C268" s="4" t="s">
-        <x:v>293</x:v>
+        <x:v>149</x:v>
       </x:c>
     </x:row>
     <x:row r="269" spans="1:3">
@@ -5037,7 +5026,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="C269" s="4" t="s">
-        <x:v>32</x:v>
+        <x:v>110</x:v>
       </x:c>
     </x:row>
     <x:row r="270" spans="1:3">
@@ -5048,7 +5037,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C270" s="4" t="s">
-        <x:v>7</x:v>
+        <x:v>360</x:v>
       </x:c>
     </x:row>
     <x:row r="271" spans="1:3">
@@ -5059,7 +5048,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="C271" s="4" t="s">
-        <x:v>6</x:v>
+        <x:v>365</x:v>
       </x:c>
     </x:row>
     <x:row r="272" spans="1:3">
@@ -5070,7 +5059,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="C272" s="4" t="s">
-        <x:v>13</x:v>
+        <x:v>279</x:v>
       </x:c>
     </x:row>
     <x:row r="273" spans="1:3">
@@ -5081,7 +5070,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="C273" s="4" t="s">
-        <x:v>48</x:v>
+        <x:v>54</x:v>
       </x:c>
     </x:row>
     <x:row r="274" spans="1:3">
@@ -5092,7 +5081,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C274" s="4" t="s">
-        <x:v>169</x:v>
+        <x:v>225</x:v>
       </x:c>
     </x:row>
     <x:row r="275" spans="1:3">
@@ -5103,7 +5092,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="C275" s="4" t="s">
-        <x:v>170</x:v>
+        <x:v>228</x:v>
       </x:c>
     </x:row>
     <x:row r="276" spans="1:3">
@@ -5114,7 +5103,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="C276" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>229</x:v>
       </x:c>
     </x:row>
     <x:row r="277" spans="1:3">
@@ -5125,7 +5114,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="C277" s="4" t="s">
-        <x:v>173</x:v>
+        <x:v>230</x:v>
       </x:c>
     </x:row>
     <x:row r="278" spans="1:3">
@@ -5136,7 +5125,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C278" s="4" t="s">
-        <x:v>287</x:v>
+        <x:v>136</x:v>
       </x:c>
     </x:row>
     <x:row r="279" spans="1:3">
@@ -5147,7 +5136,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="C279" s="4" t="s">
-        <x:v>291</x:v>
+        <x:v>152</x:v>
       </x:c>
     </x:row>
     <x:row r="280" spans="1:3">
@@ -5158,7 +5147,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="C280" s="4" t="s">
-        <x:v>294</x:v>
+        <x:v>153</x:v>
       </x:c>
     </x:row>
     <x:row r="281" spans="1:3">
@@ -5169,7 +5158,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="C281" s="4" t="s">
-        <x:v>288</x:v>
+        <x:v>137</x:v>
       </x:c>
     </x:row>
     <x:row r="282" spans="1:3">
@@ -5180,7 +5169,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C282" s="4" t="s">
-        <x:v>178</x:v>
+        <x:v>237</x:v>
       </x:c>
     </x:row>
     <x:row r="283" spans="1:3">
@@ -5191,7 +5180,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="C283" s="4" t="s">
-        <x:v>296</x:v>
+        <x:v>147</x:v>
       </x:c>
     </x:row>
     <x:row r="284" spans="1:3">
@@ -5202,7 +5191,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="C284" s="4" t="s">
-        <x:v>300</x:v>
+        <x:v>151</x:v>
       </x:c>
     </x:row>
     <x:row r="285" spans="1:3">
@@ -5213,7 +5202,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="C285" s="4" t="s">
-        <x:v>301</x:v>
+        <x:v>156</x:v>
       </x:c>
     </x:row>
     <x:row r="286" spans="1:3">
@@ -5224,7 +5213,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C286" s="4" t="s">
-        <x:v>243</x:v>
+        <x:v>339</x:v>
       </x:c>
     </x:row>
     <x:row r="287" spans="1:3">
@@ -5235,7 +5224,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="C287" s="4" t="s">
-        <x:v>245</x:v>
+        <x:v>330</x:v>
       </x:c>
     </x:row>
     <x:row r="288" spans="1:3">
@@ -5246,7 +5235,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="C288" s="4" t="s">
-        <x:v>234</x:v>
+        <x:v>338</x:v>
       </x:c>
     </x:row>
     <x:row r="289" spans="1:3">
@@ -5257,7 +5246,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="C289" s="4" t="s">
-        <x:v>221</x:v>
+        <x:v>296</x:v>
       </x:c>
     </x:row>
     <x:row r="290" spans="1:3">
@@ -5268,7 +5257,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C290" s="4" t="s">
-        <x:v>175</x:v>
+        <x:v>232</x:v>
       </x:c>
     </x:row>
     <x:row r="291" spans="1:3">
@@ -5279,7 +5268,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="C291" s="4" t="s">
-        <x:v>177</x:v>
+        <x:v>243</x:v>
       </x:c>
     </x:row>
     <x:row r="292" spans="1:3">
@@ -5290,7 +5279,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="C292" s="4" t="s">
-        <x:v>355</x:v>
+        <x:v>349</x:v>
       </x:c>
     </x:row>
     <x:row r="293" spans="1:3">
@@ -5301,7 +5290,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="C293" s="4" t="s">
-        <x:v>179</x:v>
+        <x:v>242</x:v>
       </x:c>
     </x:row>
     <x:row r="294" spans="1:3">
@@ -5312,7 +5301,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C294" s="4" t="s">
-        <x:v>302</x:v>
+        <x:v>158</x:v>
       </x:c>
     </x:row>
     <x:row r="295" spans="1:3">
@@ -5323,7 +5312,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="C295" s="4" t="s">
-        <x:v>45</x:v>
+        <x:v>94</x:v>
       </x:c>
     </x:row>
     <x:row r="296" spans="1:3">
@@ -5334,7 +5323,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="C296" s="4" t="s">
-        <x:v>96</x:v>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="297" spans="1:3">
@@ -5345,7 +5334,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="C297" s="4" t="s">
-        <x:v>304</x:v>
+        <x:v>159</x:v>
       </x:c>
     </x:row>
     <x:row r="298" spans="1:3">
@@ -5356,7 +5345,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C298" s="4" t="s">
-        <x:v>12</x:v>
+        <x:v>284</x:v>
       </x:c>
     </x:row>
     <x:row r="299" spans="1:3">
@@ -5367,7 +5356,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="C299" s="4" t="s">
-        <x:v>53</x:v>
+        <x:v>60</x:v>
       </x:c>
     </x:row>
     <x:row r="300" spans="1:3">
@@ -5378,7 +5367,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="C300" s="4" t="s">
-        <x:v>21</x:v>
+        <x:v>342</x:v>
       </x:c>
     </x:row>
     <x:row r="301" spans="1:3">
@@ -5389,7 +5378,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="C301" s="4" t="s">
-        <x:v>3</x:v>
+        <x:v>85</x:v>
       </x:c>
     </x:row>
     <x:row r="302" spans="1:3">
@@ -5400,7 +5389,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C302" s="4" t="s">
-        <x:v>334</x:v>
+        <x:v>37</x:v>
       </x:c>
     </x:row>
     <x:row r="303" spans="1:3">
@@ -5411,7 +5400,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="C303" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="304" spans="1:3">
@@ -5422,7 +5411,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="C304" s="4" t="s">
-        <x:v>335</x:v>
+        <x:v>43</x:v>
       </x:c>
     </x:row>
     <x:row r="305" spans="1:3">
@@ -5433,7 +5422,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="C305" s="4" t="s">
-        <x:v>333</x:v>
+        <x:v>42</x:v>
       </x:c>
     </x:row>
     <x:row r="306" spans="1:3">
@@ -5444,7 +5433,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C306" s="4" t="s">
-        <x:v>228</x:v>
+        <x:v>307</x:v>
       </x:c>
     </x:row>
     <x:row r="307" spans="1:3">
@@ -5455,7 +5444,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="C307" s="4" t="s">
-        <x:v>232</x:v>
+        <x:v>319</x:v>
       </x:c>
     </x:row>
     <x:row r="308" spans="1:3">
@@ -5466,7 +5455,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="C308" s="4" t="s">
-        <x:v>235</x:v>
+        <x:v>320</x:v>
       </x:c>
     </x:row>
     <x:row r="309" spans="1:3">
@@ -5477,7 +5466,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="C309" s="4" t="s">
-        <x:v>176</x:v>
+        <x:v>247</x:v>
       </x:c>
     </x:row>
     <x:row r="310" spans="1:3">
@@ -5488,7 +5477,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C310" s="4" t="s">
-        <x:v>181</x:v>
+        <x:v>239</x:v>
       </x:c>
     </x:row>
     <x:row r="311" spans="1:3">
@@ -5499,7 +5488,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="C311" s="4" t="s">
-        <x:v>182</x:v>
+        <x:v>249</x:v>
       </x:c>
     </x:row>
     <x:row r="312" spans="1:3">
@@ -5510,7 +5499,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="C312" s="4" t="s">
-        <x:v>356</x:v>
+        <x:v>346</x:v>
       </x:c>
     </x:row>
     <x:row r="313" spans="1:3">
@@ -5521,7 +5510,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="C313" s="4" t="s">
-        <x:v>188</x:v>
+        <x:v>234</x:v>
       </x:c>
     </x:row>
     <x:row r="314" spans="1:3">
@@ -5532,7 +5521,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C314" s="4" t="s">
-        <x:v>44</x:v>
+        <x:v>93</x:v>
       </x:c>
     </x:row>
     <x:row r="315" spans="1:3">
@@ -5543,7 +5532,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="C315" s="4" t="s">
-        <x:v>76</x:v>
+        <x:v>260</x:v>
       </x:c>
     </x:row>
     <x:row r="316" spans="1:3">
@@ -5554,7 +5543,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="C316" s="4" t="s">
-        <x:v>40</x:v>
+        <x:v>102</x:v>
       </x:c>
     </x:row>
     <x:row r="317" spans="1:3">
@@ -5565,7 +5554,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="C317" s="4" t="s">
-        <x:v>73</x:v>
+        <x:v>271</x:v>
       </x:c>
     </x:row>
     <x:row r="318" spans="1:3">
@@ -5576,7 +5565,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C318" s="4" t="s">
-        <x:v>297</x:v>
+        <x:v>148</x:v>
       </x:c>
     </x:row>
     <x:row r="319" spans="1:3">
@@ -5587,7 +5576,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="C319" s="4" t="s">
-        <x:v>230</x:v>
+        <x:v>309</x:v>
       </x:c>
     </x:row>
     <x:row r="320" spans="1:3">
@@ -5598,7 +5587,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="C320" s="4" t="s">
-        <x:v>180</x:v>
+        <x:v>246</x:v>
       </x:c>
     </x:row>
     <x:row r="321" spans="1:3">
@@ -5609,7 +5598,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="C321" s="4" t="s">
-        <x:v>185</x:v>
+        <x:v>238</x:v>
       </x:c>
     </x:row>
     <x:row r="322" spans="1:3">
@@ -5620,7 +5609,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C322" s="4" t="s">
-        <x:v>186</x:v>
+        <x:v>241</x:v>
       </x:c>
     </x:row>
     <x:row r="323" spans="1:3">
@@ -5631,7 +5620,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="C323" s="4" t="s">
-        <x:v>298</x:v>
+        <x:v>155</x:v>
       </x:c>
     </x:row>
     <x:row r="324" spans="1:3">
@@ -5642,7 +5631,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="C324" s="4" t="s">
-        <x:v>305</x:v>
+        <x:v>157</x:v>
       </x:c>
     </x:row>
     <x:row r="325" spans="1:3">
@@ -5653,7 +5642,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="C325" s="4" t="s">
-        <x:v>41</x:v>
+        <x:v>107</x:v>
       </x:c>
     </x:row>
     <x:row r="326" spans="1:3">
@@ -5664,7 +5653,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C326" s="4" t="s">
-        <x:v>339</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="327" spans="1:3">
@@ -5675,7 +5664,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="C327" s="4" t="s">
-        <x:v>222</x:v>
+        <x:v>289</x:v>
       </x:c>
     </x:row>
     <x:row r="328" spans="1:3">
@@ -5686,7 +5675,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="C328" s="4" t="s">
-        <x:v>238</x:v>
+        <x:v>321</x:v>
       </x:c>
     </x:row>
     <x:row r="329" spans="1:3">
@@ -5697,7 +5686,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="C329" s="4" t="s">
-        <x:v>225</x:v>
+        <x:v>286</x:v>
       </x:c>
     </x:row>
     <x:row r="330" spans="1:3">
@@ -5708,7 +5697,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C330" s="4" t="s">
-        <x:v>183</x:v>
+        <x:v>248</x:v>
       </x:c>
     </x:row>
     <x:row r="331" spans="1:3">
@@ -5719,7 +5708,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="C331" s="4" t="s">
-        <x:v>184</x:v>
+        <x:v>240</x:v>
       </x:c>
     </x:row>
     <x:row r="332" spans="1:3">
@@ -5730,7 +5719,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="C332" s="4" t="s">
-        <x:v>187</x:v>
+        <x:v>244</x:v>
       </x:c>
     </x:row>
     <x:row r="333" spans="1:3">
@@ -5741,7 +5730,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="C333" s="4" t="s">
-        <x:v>190</x:v>
+        <x:v>235</x:v>
       </x:c>
     </x:row>
     <x:row r="334" spans="1:3">
@@ -5752,7 +5741,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C334" s="4" t="s">
-        <x:v>42</x:v>
+        <x:v>103</x:v>
       </x:c>
     </x:row>
     <x:row r="335" spans="1:3">
@@ -5763,7 +5752,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="C335" s="4" t="s">
-        <x:v>195</x:v>
+        <x:v>250</x:v>
       </x:c>
     </x:row>
     <x:row r="336" spans="1:3">
@@ -5774,7 +5763,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="C336" s="4" t="s">
-        <x:v>193</x:v>
+        <x:v>254</x:v>
       </x:c>
     </x:row>
     <x:row r="337" spans="1:3">
@@ -5785,7 +5774,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="C337" s="4" t="s">
-        <x:v>192</x:v>
+        <x:v>255</x:v>
       </x:c>
     </x:row>
     <x:row r="338" spans="1:3">
@@ -5796,7 +5785,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C338" s="4" t="s">
-        <x:v>340</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="339" spans="1:3">
@@ -5807,7 +5796,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="C339" s="4" t="s">
-        <x:v>336</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="340" spans="1:3">
@@ -5818,7 +5807,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="C340" s="4" t="s">
-        <x:v>338</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="341" spans="1:3">
@@ -5829,7 +5818,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="C341" s="4" t="s">
-        <x:v>337</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="342" spans="1:3">
@@ -5840,7 +5829,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C342" s="4" t="s">
-        <x:v>191</x:v>
+        <x:v>236</x:v>
       </x:c>
     </x:row>
     <x:row r="343" spans="1:3">
@@ -5851,7 +5840,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="C343" s="4" t="s">
-        <x:v>189</x:v>
+        <x:v>245</x:v>
       </x:c>
     </x:row>
     <x:row r="344" spans="1:3">
@@ -5862,7 +5851,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="C344" s="4" t="s">
-        <x:v>249</x:v>
+        <x:v>341</x:v>
       </x:c>
     </x:row>
     <x:row r="345" spans="1:3">
@@ -5873,7 +5862,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="C345" s="4" t="s">
-        <x:v>299</x:v>
+        <x:v>150</x:v>
       </x:c>
     </x:row>
     <x:row r="346" spans="1:3">
@@ -5884,7 +5873,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C346" s="4" t="s">
-        <x:v>241</x:v>
+        <x:v>336</x:v>
       </x:c>
     </x:row>
     <x:row r="347" spans="1:3">
@@ -5895,7 +5884,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="C347" s="4" t="s">
-        <x:v>343</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="348" spans="1:3">
@@ -5906,7 +5895,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="C348" s="4" t="s">
-        <x:v>347</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="349" spans="1:3">
@@ -5917,7 +5906,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="C349" s="4" t="s">
-        <x:v>342</x:v>
+        <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="350" spans="1:3">
@@ -5972,7 +5961,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C354" s="4" t="s">
-        <x:v>194</x:v>
+        <x:v>256</x:v>
       </x:c>
     </x:row>
     <x:row r="355" spans="1:3">
@@ -5983,7 +5972,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="C355" s="4" t="s">
-        <x:v>223</x:v>
+        <x:v>297</x:v>
       </x:c>
     </x:row>
     <x:row r="356" spans="1:3">
@@ -5994,7 +5983,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="C356" s="4" t="s">
-        <x:v>226</x:v>
+        <x:v>310</x:v>
       </x:c>
     </x:row>
     <x:row r="357" spans="1:3">
@@ -6005,7 +5994,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="C357" s="4" t="s">
-        <x:v>229</x:v>
+        <x:v>308</x:v>
       </x:c>
     </x:row>
     <x:row r="358" spans="1:3">
@@ -6016,7 +6005,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C358" s="4" t="s">
-        <x:v>344</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="359" spans="1:3">
@@ -6027,7 +6016,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="C359" s="4" t="s">
-        <x:v>248</x:v>
+        <x:v>324</x:v>
       </x:c>
     </x:row>
     <x:row r="360" spans="1:3">
@@ -6038,7 +6027,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="C360" s="4" t="s">
-        <x:v>341</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="361" spans="1:3">
@@ -6049,7 +6038,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="C361" s="4" t="s">
-        <x:v>231</x:v>
+        <x:v>327</x:v>
       </x:c>
     </x:row>
     <x:row r="362" spans="1:3">
@@ -6104,7 +6093,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C366" s="4" t="s">
-        <x:v>54</x:v>
+        <x:v>53</x:v>
       </x:c>
     </x:row>
     <x:row r="367" spans="1:3">
@@ -6115,7 +6104,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="C367" s="4" t="s">
-        <x:v>50</x:v>
+        <x:v>59</x:v>
       </x:c>
     </x:row>
     <x:row r="368" spans="1:3">
@@ -6126,7 +6115,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="C368" s="4" t="s">
-        <x:v>52</x:v>
+        <x:v>56</x:v>
       </x:c>
     </x:row>
     <x:row r="369" spans="1:3">
@@ -6137,7 +6126,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="C369" s="4" t="s">
-        <x:v>51</x:v>
+        <x:v>52</x:v>
       </x:c>
     </x:row>
     <x:row r="370" spans="1:3">
@@ -6148,7 +6137,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C370" s="4" t="s">
-        <x:v>345</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="371" spans="1:3">
@@ -6159,7 +6148,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="C371" s="4" t="s">
-        <x:v>346</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="372" spans="1:3">
@@ -6170,7 +6159,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="C372" s="4" t="s">
-        <x:v>349</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="373" spans="1:3">
@@ -6181,7 +6170,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="C373" s="4" t="s">
-        <x:v>348</x:v>
+        <x:v>16</x:v>
       </x:c>
     </x:row>
     <x:row r="374" spans="1:3">
@@ -6236,7 +6225,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C378" s="4" t="s">
-        <x:v>350</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="379" spans="1:3">
@@ -6247,7 +6236,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="C379" s="4" t="s">
-        <x:v>351</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="380" spans="1:3">
@@ -6258,7 +6247,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="C380" s="4" t="s">
-        <x:v>236</x:v>
+        <x:v>323</x:v>
       </x:c>
     </x:row>
     <x:row r="381" spans="1:3">
@@ -6269,7 +6258,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="C381" s="4" t="s">
-        <x:v>237</x:v>
+        <x:v>340</x:v>
       </x:c>
     </x:row>
     <x:row r="382" spans="1:3">
@@ -6324,7 +6313,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C386" s="4" t="s">
-        <x:v>198</x:v>
+        <x:v>252</x:v>
       </x:c>
     </x:row>
     <x:row r="387" spans="1:3">
@@ -6335,7 +6324,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="C387" s="4" t="s">
-        <x:v>196</x:v>
+        <x:v>253</x:v>
       </x:c>
     </x:row>
     <x:row r="388" spans="1:3">
@@ -6346,7 +6335,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="C388" s="4" t="s">
-        <x:v>303</x:v>
+        <x:v>160</x:v>
       </x:c>
     </x:row>
     <x:row r="389" spans="1:3">
@@ -6357,7 +6346,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="C389" s="4" t="s">
-        <x:v>197</x:v>
+        <x:v>251</x:v>
       </x:c>
     </x:row>
     <x:row r="390" spans="1:3">
@@ -6368,7 +6357,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C390" s="4" t="s">
-        <x:v>358</x:v>
+        <x:v>352</x:v>
       </x:c>
     </x:row>
     <x:row r="391" spans="1:3">
@@ -6379,7 +6368,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="C391" s="4" t="s">
-        <x:v>43</x:v>
+        <x:v>97</x:v>
       </x:c>
     </x:row>
     <x:row r="392" spans="1:3">
@@ -6390,7 +6379,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="C392" s="4" t="s">
-        <x:v>357</x:v>
+        <x:v>347</x:v>
       </x:c>
     </x:row>
     <x:row r="393" spans="1:3">
@@ -6401,7 +6390,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="C393" s="4" t="s">
-        <x:v>92</x:v>
+        <x:v>81</x:v>
       </x:c>
     </x:row>
     <x:row r="394" spans="1:3">
@@ -6412,7 +6401,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C394" s="4" t="s">
-        <x:v>242</x:v>
+        <x:v>332</x:v>
       </x:c>
     </x:row>
     <x:row r="395" spans="1:3">
@@ -6423,7 +6412,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="C395" s="4" t="s">
-        <x:v>253</x:v>
+        <x:v>334</x:v>
       </x:c>
     </x:row>
     <x:row r="396" spans="1:3">
@@ -6434,7 +6423,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="C396" s="4" t="s">
-        <x:v>255</x:v>
+        <x:v>317</x:v>
       </x:c>
     </x:row>
     <x:row r="397" spans="1:3">
@@ -6445,7 +6434,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="C397" s="4" t="s">
-        <x:v>254</x:v>
+        <x:v>318</x:v>
       </x:c>
     </x:row>
     <x:row r="398" spans="1:3">
@@ -6493,7 +6482,7 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:pageMargins left="0.69999998807907104" right="0.69999998807907104" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
+  <x:pageMargins left="0.69986110925674438" right="0.69986110925674438" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </x:worksheet>
 </file>
--- a/DataFiles/example.xlsx
+++ b/DataFiles/example.xlsx
@@ -788,342 +788,353 @@
     <t>전송 오류 검출</t>
   </si>
   <si>
+    <t>소프트웨어 규모의 증대와 복잡도에 따른 개발 비용의 감소</t>
+  </si>
+  <si>
+    <t>DES(Data Encryption Standard)</t>
+  </si>
+  <si>
+    <t>SELECT, INSERT, DELETE, UPDATE</t>
+  </si>
+  <si>
+    <t>로킹 단위가 작으면 로크(lock)의 수가 적어진다.</t>
+  </si>
+  <si>
+    <t>INSERT, DELETE, UPDATE, DROP</t>
+  </si>
+  <si>
+    <t>디지털 서명은 비대칭형 암호 알고리즘을 사용 한다.</t>
+  </si>
+  <si>
+    <t>FEAL(Fast Encryption Algorithm)</t>
+  </si>
+  <si>
+    <t>PLA(Programmable Logic Array)</t>
+  </si>
+  <si>
+    <t>SELECT, INSERT, DELETE, ALTER</t>
+  </si>
+  <si>
+    <t>2- 주소 명령어 형식은 MOVE 명령이 필요하다.</t>
+  </si>
+  <si>
+    <t>새로운 소프트웨어의 오류율이 고객 불만과 신뢰결여를 유발</t>
+  </si>
+  <si>
+    <t>DELETE, UPDATE, CREATE, ALTER</t>
+  </si>
+  <si>
+    <t>공유 데이터와 이 데이터를 처리하는 프로시저로 구성된다.</t>
+  </si>
+  <si>
+    <t>PAL(Programmable Array Logic)</t>
+  </si>
+  <si>
+    <t>생산자/소비자를 구현하는 세마포어의 초기 값은 2이다.</t>
+  </si>
+  <si>
+    <t>E-R 다이어그램에서 개체 타입은 사각형으로 나타낸다.</t>
+  </si>
+  <si>
+    <t>캐쉬- 일관성 문제는 쓰기 접근 빈도가 많은 접근형태에서 캐싱이 우수하다.</t>
+  </si>
+  <si>
+    <t>사용자에게 동적으로 할당할 수 있는 일반적인 자원들이 각 노드에 분산되어 있다.</t>
+  </si>
+  <si>
+    <t>COCOMO 방법은 가정과 제약조건이 없어 모든 시스템에 동일하게 적용할 수 맀다.</t>
+  </si>
+  <si>
+    <t>분산된 노드들은 통신 네트워크를 이용하여 메시지를 주고 받은으로서 정보를 교환한다.</t>
+  </si>
+  <si>
+    <t>여러 종류의 MO 수행시 CPU사이클 타임이 실제적인 오퍼레이션 시간보다 길다.</t>
+  </si>
+  <si>
+    <t>모든 원격 접근은 원격- 서비스 방법이 사용 될 때 네트워크를 통해서만 처리된다.</t>
+  </si>
+  <si>
+    <t>정규화의 목적은 각 릴레이션에 분산된 종속성을 하나의 릴레이션에 통합 하는 것이다.</t>
+  </si>
+  <si>
+    <t>프로젝트 자체 요소로 문제의 복잡도, 시스템의 규모, 요구되는 신뢰도 등이 있다</t>
+  </si>
+  <si>
+    <t>많은 원격 접근들은 캐싱이 사용될 때 지역 캐쉬에 의해서 효율적으로 처리될 수 맀다.</t>
+  </si>
+  <si>
+    <t>FHSS</t>
+  </si>
+  <si>
+    <t>영역 2</t>
+  </si>
+  <si>
+    <t>제어규칙</t>
+  </si>
+  <si>
+    <t>DSSS</t>
+  </si>
+  <si>
+    <t>0011</t>
+  </si>
+  <si>
+    <t>크로스 링커</t>
+  </si>
+  <si>
+    <t>보기번호</t>
+  </si>
+  <si>
+    <t>OR 연산</t>
+  </si>
+  <si>
+    <t>분기 번지</t>
+  </si>
+  <si>
+    <t>영역 4</t>
+  </si>
+  <si>
+    <t>PEOPLE</t>
+  </si>
+  <si>
+    <t>데이터 처리</t>
+  </si>
+  <si>
+    <t>Degree</t>
+  </si>
+  <si>
+    <t>영역 1</t>
+  </si>
+  <si>
+    <t>JOIN</t>
+  </si>
+  <si>
+    <t>보기내용</t>
+  </si>
+  <si>
+    <t>channel</t>
+  </si>
+  <si>
+    <t>UPDATE</t>
+  </si>
+  <si>
+    <t>NOT 연산</t>
+  </si>
+  <si>
+    <t>영역 3</t>
+  </si>
+  <si>
+    <t>AND 연산</t>
+  </si>
+  <si>
+    <t>1, 4</t>
+  </si>
+  <si>
+    <t>정보 저장</t>
+  </si>
+  <si>
+    <t>타당성 조사</t>
+  </si>
+  <si>
+    <t>주소 인식</t>
+  </si>
+  <si>
+    <t>데이터 버스</t>
+  </si>
+  <si>
+    <t>XOR 연산</t>
+  </si>
+  <si>
+    <t>FIFO</t>
+  </si>
+  <si>
+    <t>제약조건</t>
+  </si>
+  <si>
+    <t>처리율 극대화</t>
+  </si>
+  <si>
+    <t>기능적 분석</t>
+  </si>
+  <si>
+    <t>LAPX</t>
+  </si>
+  <si>
+    <t>LAPM</t>
+  </si>
+  <si>
+    <t>1, 2, 3</t>
+  </si>
+  <si>
+    <t>1, 2, 4</t>
+  </si>
+  <si>
+    <t>OFDM</t>
+  </si>
+  <si>
+    <t>480K</t>
+  </si>
+  <si>
+    <t>토큰버스</t>
+  </si>
+  <si>
+    <t>L2CAP</t>
+  </si>
+  <si>
+    <t>170K</t>
+  </si>
+  <si>
+    <t>430K</t>
+  </si>
+  <si>
+    <t>RFCOMM</t>
+  </si>
+  <si>
+    <t>구조적 분석</t>
+  </si>
+  <si>
+    <t>chmod</t>
+  </si>
+  <si>
+    <t>PROCESS</t>
+  </si>
+  <si>
+    <t>객체지향 분석</t>
+  </si>
+  <si>
+    <t>LAPB</t>
+  </si>
+  <si>
+    <t>실시간 분석</t>
+  </si>
+  <si>
+    <t>LAPD</t>
+  </si>
+  <si>
+    <t>260K</t>
+  </si>
+  <si>
+    <t>DPCM</t>
+  </si>
+  <si>
+    <t>외부 인터럽트</t>
+  </si>
+  <si>
+    <t>PASSING</t>
+  </si>
+  <si>
+    <t>PROBLEM</t>
+  </si>
+  <si>
+    <t>FDDI</t>
+  </si>
+  <si>
+    <t>SQD 방식</t>
+  </si>
+  <si>
+    <t>Person-Month(PM) 당 제작되는 평균 LOC(Line of Code) 등이 있다.</t>
+  </si>
+  <si>
+    <t>개체 타입과 이들 간의 관계 타입을 기본 요소로 이용하여 현실 세계를 개념적으로 표현한다.</t>
+  </si>
+  <si>
+    <t>이상(Anomaly) 현상은 데이터들 간에 존재하는 함수 종속이 하나의 원인이 될 수 있다.</t>
+  </si>
+  <si>
+    <t>정규화를 거치지 않으면 여러 가지 상이한 종류의 정보를 하나의 릴레이션으로 표현하여 그 릴레이이션을 조작할 때 이상(Anomaly) 현상이 발생할 수 있다.</t>
+  </si>
+  <si>
+    <t>Control Specification</t>
+  </si>
+  <si>
+    <t>전송 매체는 UTP(꼬임쌍선) 이다.</t>
+  </si>
+  <si>
+    <t>변경 발생 시 오류의 파급효과가 적다.</t>
+  </si>
+  <si>
+    <t>데이터 구조들과 그들 간의 관계들을 표현</t>
+  </si>
+  <si>
+    <t>Application Interface</t>
+  </si>
+  <si>
+    <t>소프트웨어 모듈의 재사용성이 향상된다.</t>
+  </si>
+  <si>
+    <t>최대 전송속도는 1000 kbps 이다.</t>
+  </si>
+  <si>
+    <t>모니터의 경계에서 상호배제가 시행된다.</t>
+  </si>
+  <si>
+    <t>Direct Linking Loader</t>
+  </si>
+  <si>
+    <t>로킹 단위가 크면 병행성 수준이 낮아진다.</t>
+  </si>
+  <si>
+    <t>Compile and Go Loader</t>
+  </si>
+  <si>
+    <t>RSA는 공개키/비밀키 암호화 기법이다.</t>
+  </si>
+  <si>
+    <t>자료추상화와 정보은폐 기법을 기초로 한다.</t>
+  </si>
+  <si>
+    <t>중앙처리장치의 시간이 이용이 비효율적이다.</t>
+  </si>
+  <si>
+    <t>보헴 (Boehm)이 제안한 소스 코드 (Source Code) 의 규모에 의한 비용예측 모델이다.</t>
+  </si>
+  <si>
+    <t>소프트웨어 사용자들이 소프트웨어 사용 방법을 신속히 숙지할 수 있도록 개발된 자동화 패키지이다.</t>
+  </si>
+  <si>
+    <t>필요한 레코드를 삽입, 삭제, 수정하는 경우 파일을 재구성해야 하므로 파일 전체를 복사해야 한다.</t>
+  </si>
+  <si>
+    <t>정규화가 잘못되면 데이터의 불필요한 중복이 야기되어 릴레이션을 조작할 때 문제가 발생할 수 있다.</t>
+  </si>
+  <si>
+    <t>파일 탐색 효율이 우수하며, 접근 시간 및 응답 시간이 빠르기 때문에 대화형 처리에 적합하다.</t>
+  </si>
+  <si>
+    <t>소프트웨어 프로젝트 유형에 따라 다르게 책정되는 비용 산정 수식(Equation)을 이용한다.</t>
+  </si>
+  <si>
+    <t>A→B 이고 B→C 일 때, A→C 를 만족하는 관계</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>A→B 이고 B→C 일 때, C→B 를 만족하는 관계</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>A→B 이고 B→C 일 때, C→A 를 만족하는 관계</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>A→B 이고 B→C 일 때, B→A 를 만족하는 관계</t>
-  </si>
-  <si>
-    <t>A→B 이고 B→C 일 때, C→A 를 만족하는 관계</t>
-  </si>
-  <si>
-    <t>A→B 이고 B→C 일 때, C→B 를 만족하는 관계</t>
-  </si>
-  <si>
-    <t>소프트웨어 규모의 증대와 복잡도에 따른 개발 비용의 감소</t>
-  </si>
-  <si>
-    <t>DES(Data Encryption Standard)</t>
-  </si>
-  <si>
-    <t>A→B 이고 B→C 일 때, A→C 를 만족하는 관계</t>
-  </si>
-  <si>
-    <t>SELECT, INSERT, DELETE, UPDATE</t>
-  </si>
-  <si>
-    <t>로킹 단위가 작으면 로크(lock)의 수가 적어진다.</t>
-  </si>
-  <si>
-    <t>INSERT, DELETE, UPDATE, DROP</t>
-  </si>
-  <si>
-    <t>디지털 서명은 비대칭형 암호 알고리즘을 사용 한다.</t>
-  </si>
-  <si>
-    <t>FEAL(Fast Encryption Algorithm)</t>
-  </si>
-  <si>
-    <t>PLA(Programmable Logic Array)</t>
-  </si>
-  <si>
-    <t>SELECT, INSERT, DELETE, ALTER</t>
-  </si>
-  <si>
-    <t>2- 주소 명령어 형식은 MOVE 명령이 필요하다.</t>
-  </si>
-  <si>
-    <t>새로운 소프트웨어의 오류율이 고객 불만과 신뢰결여를 유발</t>
-  </si>
-  <si>
-    <t>DELETE, UPDATE, CREATE, ALTER</t>
-  </si>
-  <si>
-    <t>공유 데이터와 이 데이터를 처리하는 프로시저로 구성된다.</t>
-  </si>
-  <si>
-    <t>PAL(Programmable Array Logic)</t>
-  </si>
-  <si>
-    <t>생산자/소비자를 구현하는 세마포어의 초기 값은 2이다.</t>
-  </si>
-  <si>
-    <t>E-R 다이어그램에서 개체 타입은 사각형으로 나타낸다.</t>
-  </si>
-  <si>
-    <t>캐쉬- 일관성 문제는 쓰기 접근 빈도가 많은 접근형태에서 캐싱이 우수하다.</t>
-  </si>
-  <si>
-    <t>사용자에게 동적으로 할당할 수 있는 일반적인 자원들이 각 노드에 분산되어 있다.</t>
-  </si>
-  <si>
-    <t>COCOMO 방법은 가정과 제약조건이 없어 모든 시스템에 동일하게 적용할 수 맀다.</t>
-  </si>
-  <si>
-    <t>분산된 노드들은 통신 네트워크를 이용하여 메시지를 주고 받은으로서 정보를 교환한다.</t>
-  </si>
-  <si>
-    <t>여러 종류의 MO 수행시 CPU사이클 타임이 실제적인 오퍼레이션 시간보다 길다.</t>
-  </si>
-  <si>
-    <t>모든 원격 접근은 원격- 서비스 방법이 사용 될 때 네트워크를 통해서만 처리된다.</t>
-  </si>
-  <si>
-    <t>정규화의 목적은 각 릴레이션에 분산된 종속성을 하나의 릴레이션에 통합 하는 것이다.</t>
-  </si>
-  <si>
-    <t>프로젝트 자체 요소로 문제의 복잡도, 시스템의 규모, 요구되는 신뢰도 등이 있다</t>
-  </si>
-  <si>
-    <t>많은 원격 접근들은 캐싱이 사용될 때 지역 캐쉬에 의해서 효율적으로 처리될 수 맀다.</t>
-  </si>
-  <si>
-    <t>FHSS</t>
-  </si>
-  <si>
-    <t>영역 2</t>
-  </si>
-  <si>
-    <t>제어규칙</t>
-  </si>
-  <si>
-    <t>DSSS</t>
-  </si>
-  <si>
-    <t>0011</t>
-  </si>
-  <si>
-    <t>크로스 링커</t>
-  </si>
-  <si>
-    <t>보기번호</t>
-  </si>
-  <si>
-    <t>OR 연산</t>
-  </si>
-  <si>
-    <t>분기 번지</t>
-  </si>
-  <si>
-    <t>영역 4</t>
-  </si>
-  <si>
-    <t>PEOPLE</t>
-  </si>
-  <si>
-    <t>데이터 처리</t>
-  </si>
-  <si>
-    <t>Degree</t>
-  </si>
-  <si>
-    <t>영역 1</t>
-  </si>
-  <si>
-    <t>JOIN</t>
-  </si>
-  <si>
-    <t>보기내용</t>
-  </si>
-  <si>
-    <t>channel</t>
-  </si>
-  <si>
-    <t>UPDATE</t>
-  </si>
-  <si>
-    <t>NOT 연산</t>
-  </si>
-  <si>
-    <t>영역 3</t>
-  </si>
-  <si>
-    <t>AND 연산</t>
-  </si>
-  <si>
-    <t>1, 4</t>
-  </si>
-  <si>
-    <t>정보 저장</t>
-  </si>
-  <si>
-    <t>타당성 조사</t>
-  </si>
-  <si>
-    <t>주소 인식</t>
-  </si>
-  <si>
-    <t>데이터 버스</t>
-  </si>
-  <si>
-    <t>XOR 연산</t>
-  </si>
-  <si>
-    <t>FIFO</t>
-  </si>
-  <si>
-    <t>제약조건</t>
-  </si>
-  <si>
-    <t>처리율 극대화</t>
-  </si>
-  <si>
-    <t>기능적 분석</t>
-  </si>
-  <si>
-    <t>LAPX</t>
-  </si>
-  <si>
-    <t>LAPM</t>
-  </si>
-  <si>
-    <t>1, 2, 3</t>
-  </si>
-  <si>
-    <t>1, 2, 4</t>
-  </si>
-  <si>
-    <t>OFDM</t>
-  </si>
-  <si>
-    <t>480K</t>
-  </si>
-  <si>
-    <t>토큰버스</t>
-  </si>
-  <si>
-    <t>L2CAP</t>
-  </si>
-  <si>
-    <t>170K</t>
-  </si>
-  <si>
-    <t>430K</t>
-  </si>
-  <si>
-    <t>RFCOMM</t>
-  </si>
-  <si>
-    <t>구조적 분석</t>
-  </si>
-  <si>
-    <t>chmod</t>
-  </si>
-  <si>
-    <t>PROCESS</t>
-  </si>
-  <si>
-    <t>객체지향 분석</t>
-  </si>
-  <si>
-    <t>LAPB</t>
-  </si>
-  <si>
-    <t>실시간 분석</t>
-  </si>
-  <si>
-    <t>LAPD</t>
-  </si>
-  <si>
-    <t>260K</t>
-  </si>
-  <si>
-    <t>DPCM</t>
-  </si>
-  <si>
-    <t>외부 인터럽트</t>
-  </si>
-  <si>
-    <t>PASSING</t>
-  </si>
-  <si>
-    <t>PROBLEM</t>
-  </si>
-  <si>
-    <t>FDDI</t>
-  </si>
-  <si>
-    <t>SQD 방식</t>
-  </si>
-  <si>
-    <t>Person-Month(PM) 당 제작되는 평균 LOC(Line of Code) 등이 있다.</t>
-  </si>
-  <si>
-    <t>개체 타입과 이들 간의 관계 타입을 기본 요소로 이용하여 현실 세계를 개념적으로 표현한다.</t>
-  </si>
-  <si>
-    <t>이상(Anomaly) 현상은 데이터들 간에 존재하는 함수 종속이 하나의 원인이 될 수 있다.</t>
-  </si>
-  <si>
-    <t>정규화를 거치지 않으면 여러 가지 상이한 종류의 정보를 하나의 릴레이션으로 표현하여 그 릴레이이션을 조작할 때 이상(Anomaly) 현상이 발생할 수 있다.</t>
-  </si>
-  <si>
-    <t>Control Specification</t>
-  </si>
-  <si>
-    <t>전송 매체는 UTP(꼬임쌍선) 이다.</t>
-  </si>
-  <si>
-    <t>변경 발생 시 오류의 파급효과가 적다.</t>
-  </si>
-  <si>
-    <t>데이터 구조들과 그들 간의 관계들을 표현</t>
-  </si>
-  <si>
-    <t>Application Interface</t>
-  </si>
-  <si>
-    <t>소프트웨어 모듈의 재사용성이 향상된다.</t>
-  </si>
-  <si>
-    <t>최대 전송속도는 1000 kbps 이다.</t>
-  </si>
-  <si>
-    <t>모니터의 경계에서 상호배제가 시행된다.</t>
-  </si>
-  <si>
-    <t>Direct Linking Loader</t>
-  </si>
-  <si>
-    <t>로킹 단위가 크면 병행성 수준이 낮아진다.</t>
-  </si>
-  <si>
-    <t>Compile and Go Loader</t>
-  </si>
-  <si>
-    <t>RSA는 공개키/비밀키 암호화 기법이다.</t>
-  </si>
-  <si>
-    <t>자료추상화와 정보은폐 기법을 기초로 한다.</t>
-  </si>
-  <si>
-    <t>중앙처리장치의 시간이 이용이 비효율적이다.</t>
-  </si>
-  <si>
-    <t>보헴 (Boehm)이 제안한 소스 코드 (Source Code) 의 규모에 의한 비용예측 모델이다.</t>
-  </si>
-  <si>
-    <t>소프트웨어 사용자들이 소프트웨어 사용 방법을 신속히 숙지할 수 있도록 개발된 자동화 패키지이다.</t>
-  </si>
-  <si>
-    <t>필요한 레코드를 삽입, 삭제, 수정하는 경우 파일을 재구성해야 하므로 파일 전체를 복사해야 한다.</t>
-  </si>
-  <si>
-    <t>정규화가 잘못되면 데이터의 불필요한 중복이 야기되어 릴레이션을 조작할 때 문제가 발생할 수 있다.</t>
-  </si>
-  <si>
-    <t>파일 탐색 효율이 우수하며, 접근 시간 및 응답 시간이 빠르기 때문에 대화형 처리에 적합하다.</t>
-  </si>
-  <si>
-    <t>소프트웨어 프로젝트 유형에 따라 다르게 책정되는 비용 산정 수식(Equation)을 이용한다.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="맑은 고딕"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1189,14 +1200,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -1205,16 +1216,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1526,10 +1540,10 @@
         <v>61</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -1539,8 +1553,8 @@
       <c r="B2" s="3">
         <v>1</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>262</v>
+      <c r="C2" s="9" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -1550,8 +1564,8 @@
       <c r="B3" s="3">
         <v>2</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>258</v>
+      <c r="C3" s="9" t="s">
+        <v>364</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -1561,8 +1575,8 @@
       <c r="B4" s="3">
         <v>3</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>257</v>
+      <c r="C4" s="9" t="s">
+        <v>365</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -1572,8 +1586,8 @@
       <c r="B5" s="3">
         <v>4</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>259</v>
+      <c r="C5" s="9" t="s">
+        <v>363</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -1628,7 +1642,7 @@
         <v>1</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -1639,7 +1653,7 @@
         <v>2</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -1650,7 +1664,7 @@
         <v>3</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -1661,7 +1675,7 @@
         <v>4</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -1925,7 +1939,7 @@
         <v>4</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
@@ -1947,7 +1961,7 @@
         <v>2</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
@@ -1958,7 +1972,7 @@
         <v>3</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
@@ -2090,7 +2104,7 @@
         <v>3</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
@@ -2101,7 +2115,7 @@
         <v>4</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
@@ -2112,7 +2126,7 @@
         <v>1</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
@@ -2134,7 +2148,7 @@
         <v>3</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
@@ -2200,7 +2214,7 @@
         <v>1</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
@@ -2222,7 +2236,7 @@
         <v>3</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
@@ -2244,7 +2258,7 @@
         <v>1</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
@@ -2332,7 +2346,7 @@
         <v>1</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
@@ -2343,7 +2357,7 @@
         <v>2</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
@@ -2354,7 +2368,7 @@
         <v>3</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
@@ -2365,7 +2379,7 @@
         <v>4</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
@@ -2420,7 +2434,7 @@
         <v>1</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
@@ -2442,7 +2456,7 @@
         <v>3</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
@@ -2475,7 +2489,7 @@
         <v>2</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
@@ -2486,7 +2500,7 @@
         <v>3</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
@@ -2574,7 +2588,7 @@
         <v>3</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
@@ -2728,7 +2742,7 @@
         <v>1</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.3">
@@ -2739,7 +2753,7 @@
         <v>2</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.3">
@@ -2904,7 +2918,7 @@
         <v>1</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.3">
@@ -2915,7 +2929,7 @@
         <v>2</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.3">
@@ -2926,7 +2940,7 @@
         <v>3</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.3">
@@ -2937,7 +2951,7 @@
         <v>4</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.3">
@@ -2992,7 +3006,7 @@
         <v>1</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.3">
@@ -3146,7 +3160,7 @@
         <v>3</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.3">
@@ -3190,7 +3204,7 @@
         <v>3</v>
       </c>
       <c r="C152" s="8" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.3">
@@ -3256,7 +3270,7 @@
         <v>1</v>
       </c>
       <c r="C158" s="5" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.3">
@@ -3300,7 +3314,7 @@
         <v>1</v>
       </c>
       <c r="C162" s="5" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.3">
@@ -3322,7 +3336,7 @@
         <v>3</v>
       </c>
       <c r="C164" s="5" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.3">
@@ -3333,7 +3347,7 @@
         <v>4</v>
       </c>
       <c r="C165" s="5" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.3">
@@ -3421,7 +3435,7 @@
         <v>4</v>
       </c>
       <c r="C173" s="5" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.3">
@@ -3432,7 +3446,7 @@
         <v>1</v>
       </c>
       <c r="C174" s="5" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.3">
@@ -3476,7 +3490,7 @@
         <v>1</v>
       </c>
       <c r="C178" s="5" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.3">
@@ -3487,7 +3501,7 @@
         <v>2</v>
       </c>
       <c r="C179" s="5" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.3">
@@ -3498,7 +3512,7 @@
         <v>3</v>
       </c>
       <c r="C180" s="5" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.3">
@@ -3509,7 +3523,7 @@
         <v>4</v>
       </c>
       <c r="C181" s="5" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.3">
@@ -3608,7 +3622,7 @@
         <v>1</v>
       </c>
       <c r="C190" s="5" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.3">
@@ -3619,7 +3633,7 @@
         <v>2</v>
       </c>
       <c r="C191" s="5" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.3">
@@ -3630,7 +3644,7 @@
         <v>3</v>
       </c>
       <c r="C192" s="5" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.3">
@@ -3652,7 +3666,7 @@
         <v>1</v>
       </c>
       <c r="C194" s="5" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.3">
@@ -3663,7 +3677,7 @@
         <v>2</v>
       </c>
       <c r="C195" s="5" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.3">
@@ -3707,7 +3721,7 @@
         <v>2</v>
       </c>
       <c r="C199" s="5" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.3">
@@ -3718,7 +3732,7 @@
         <v>3</v>
       </c>
       <c r="C200" s="4" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.3">
@@ -3740,7 +3754,7 @@
         <v>1</v>
       </c>
       <c r="C202" s="4" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.3">
@@ -3751,7 +3765,7 @@
         <v>2</v>
       </c>
       <c r="C203" s="4" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.3">
@@ -3762,7 +3776,7 @@
         <v>3</v>
       </c>
       <c r="C204" s="4" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.3">
@@ -3773,7 +3787,7 @@
         <v>4</v>
       </c>
       <c r="C205" s="4" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.3">
@@ -3784,7 +3798,7 @@
         <v>1</v>
       </c>
       <c r="C206" s="4" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.3">
@@ -3883,7 +3897,7 @@
         <v>2</v>
       </c>
       <c r="C215" s="5" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.3">
@@ -3905,7 +3919,7 @@
         <v>4</v>
       </c>
       <c r="C217" s="5" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.3">
@@ -3971,7 +3985,7 @@
         <v>2</v>
       </c>
       <c r="C223" s="4" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.3">
@@ -4004,7 +4018,7 @@
         <v>1</v>
       </c>
       <c r="C226" s="4" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.3">
@@ -4037,7 +4051,7 @@
         <v>4</v>
       </c>
       <c r="C229" s="4" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.3">
@@ -4081,7 +4095,7 @@
         <v>4</v>
       </c>
       <c r="C233" s="4" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.3">
@@ -4147,7 +4161,7 @@
         <v>2</v>
       </c>
       <c r="C239" s="4" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.3">
@@ -4224,7 +4238,7 @@
         <v>1</v>
       </c>
       <c r="C246" s="4" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.3">
@@ -4268,7 +4282,7 @@
         <v>1</v>
       </c>
       <c r="C250" s="4" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.3">
@@ -4290,7 +4304,7 @@
         <v>3</v>
       </c>
       <c r="C252" s="4" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.3">
@@ -4323,7 +4337,7 @@
         <v>2</v>
       </c>
       <c r="C255" s="4" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.3">
@@ -4356,7 +4370,7 @@
         <v>1</v>
       </c>
       <c r="C258" s="4" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.3">
@@ -4367,7 +4381,7 @@
         <v>2</v>
       </c>
       <c r="C259" s="4" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.3">
@@ -4378,7 +4392,7 @@
         <v>3</v>
       </c>
       <c r="C260" s="4" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.3">
@@ -4389,7 +4403,7 @@
         <v>4</v>
       </c>
       <c r="C261" s="4" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.3">
@@ -4488,7 +4502,7 @@
         <v>1</v>
       </c>
       <c r="C270" s="4" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.3">
@@ -4499,7 +4513,7 @@
         <v>2</v>
       </c>
       <c r="C271" s="4" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.3">
@@ -4510,7 +4524,7 @@
         <v>3</v>
       </c>
       <c r="C272" s="4" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.3">
@@ -4664,7 +4678,7 @@
         <v>1</v>
       </c>
       <c r="C286" s="4" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.3">
@@ -4675,7 +4689,7 @@
         <v>2</v>
       </c>
       <c r="C287" s="4" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.3">
@@ -4686,7 +4700,7 @@
         <v>3</v>
       </c>
       <c r="C288" s="4" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.3">
@@ -4697,7 +4711,7 @@
         <v>4</v>
       </c>
       <c r="C289" s="4" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.3">
@@ -4730,7 +4744,7 @@
         <v>3</v>
       </c>
       <c r="C292" s="4" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.3">
@@ -4796,7 +4810,7 @@
         <v>1</v>
       </c>
       <c r="C298" s="4" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.3">
@@ -4818,7 +4832,7 @@
         <v>3</v>
       </c>
       <c r="C300" s="4" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.3">
@@ -4884,7 +4898,7 @@
         <v>1</v>
       </c>
       <c r="C306" s="4" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.3">
@@ -4895,7 +4909,7 @@
         <v>2</v>
       </c>
       <c r="C307" s="4" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.3">
@@ -4906,7 +4920,7 @@
         <v>3</v>
       </c>
       <c r="C308" s="4" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.3">
@@ -4950,7 +4964,7 @@
         <v>3</v>
       </c>
       <c r="C312" s="4" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.3">
@@ -4983,7 +4997,7 @@
         <v>2</v>
       </c>
       <c r="C315" s="4" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.3">
@@ -5005,7 +5019,7 @@
         <v>4</v>
       </c>
       <c r="C317" s="4" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.3">
@@ -5027,7 +5041,7 @@
         <v>2</v>
       </c>
       <c r="C319" s="4" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.3">
@@ -5115,7 +5129,7 @@
         <v>2</v>
       </c>
       <c r="C327" s="4" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.3">
@@ -5126,7 +5140,7 @@
         <v>3</v>
       </c>
       <c r="C328" s="4" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.3">
@@ -5137,7 +5151,7 @@
         <v>4</v>
       </c>
       <c r="C329" s="4" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.3">
@@ -5302,7 +5316,7 @@
         <v>3</v>
       </c>
       <c r="C344" s="4" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.3">
@@ -5324,7 +5338,7 @@
         <v>1</v>
       </c>
       <c r="C346" s="4" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.3">
@@ -5423,7 +5437,7 @@
         <v>2</v>
       </c>
       <c r="C355" s="4" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.3">
@@ -5434,7 +5448,7 @@
         <v>3</v>
       </c>
       <c r="C356" s="4" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.3">
@@ -5445,7 +5459,7 @@
         <v>4</v>
       </c>
       <c r="C357" s="4" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.3">
@@ -5467,7 +5481,7 @@
         <v>2</v>
       </c>
       <c r="C359" s="4" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.3">
@@ -5489,7 +5503,7 @@
         <v>4</v>
       </c>
       <c r="C361" s="4" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.3">
@@ -5698,7 +5712,7 @@
         <v>3</v>
       </c>
       <c r="C380" s="4" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.3">
@@ -5709,7 +5723,7 @@
         <v>4</v>
       </c>
       <c r="C381" s="4" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.3">
@@ -5808,7 +5822,7 @@
         <v>1</v>
       </c>
       <c r="C390" s="4" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.3">
@@ -5830,7 +5844,7 @@
         <v>3</v>
       </c>
       <c r="C392" s="4" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.3">
@@ -5852,7 +5866,7 @@
         <v>1</v>
       </c>
       <c r="C394" s="4" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.3">
@@ -5863,7 +5877,7 @@
         <v>2</v>
       </c>
       <c r="C395" s="4" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.3">
@@ -5874,7 +5888,7 @@
         <v>3</v>
       </c>
       <c r="C396" s="4" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.3">
@@ -5885,7 +5899,7 @@
         <v>4</v>
       </c>
       <c r="C397" s="4" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.3">
@@ -5933,7 +5947,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.69986110925674438" right="0.69986110925674438" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
   <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait"/>
 </worksheet>
